--- a/mn/src/main/webapp/resources/data/result.xlsx
+++ b/mn/src/main/webapp/resources/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="800">
   <si>
     <t>상품명</t>
   </si>
@@ -34,1227 +34,1227 @@
     <t>로얄캐닌 캣 인도어</t>
   </si>
   <si>
-    <t>WYXqYQsZQK</t>
+    <t>로얄캐닌 미니 인도어 어덜트</t>
   </si>
   <si>
     <t>로얄캐닌 키튼</t>
   </si>
   <si>
+    <t>ezDKlpzIUd</t>
+  </si>
+  <si>
     <t>네츄럴코어 강아지 베네 M50 작은입자</t>
   </si>
   <si>
-    <t>로얄캐닌 미니 인도어 어덜트</t>
+    <t>코스트코 커클랜드 시그니춰 고양이 사료</t>
+  </si>
+  <si>
+    <t>대주펫푸드 캐츠맘</t>
   </si>
   <si>
     <t>로얄캐닌 캣 인도어 7+</t>
   </si>
   <si>
-    <t>코스트코 커클랜드 시그니춰 고양이 사료</t>
+    <t>씨에이코리아 뉴블루캣</t>
   </si>
   <si>
     <t>로얄캐닌 피트</t>
   </si>
   <si>
+    <t>대한사료 프로랑 야옹이</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 그레인프리 퍼포먼스</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 쇠고기 100g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 라이트 웨이트케어</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 캣 그레인프리 어덜트</t>
+  </si>
+  <si>
+    <t>로얄캐닌 마더 &amp; 베이비캣</t>
+  </si>
+  <si>
+    <t>로얄캐닌 센서블</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 프로플랜 라지브리드 어덜트</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 캣차우 컴플리트</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 비프 앤 호키 피스트 85g</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 프라임 밸런스</t>
+  </si>
+  <si>
     <t>대한사료 프로베스트 캣</t>
   </si>
   <si>
-    <t>씨에이코리아 뉴블루캣</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 라이트 웨이트케어</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 그레인프리 어덜트</t>
-  </si>
-  <si>
-    <t>대한사료 프로랑 야옹이</t>
+    <t>로얄캐닌 미니 스타터 마더&amp;베이비독</t>
+  </si>
+  <si>
+    <t>로얄캐닌 엑스스몰 퍼피</t>
+  </si>
+  <si>
+    <t>대한사료 도그라인 아지피아</t>
+  </si>
+  <si>
+    <t>팜스코 나비와 야옹이</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 팬시피스트 인스퍼레이션 치킨 70g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 샴 어덜트</t>
+  </si>
+  <si>
+    <t>KLN 퓨어비타 캣 그레인프리 치킨</t>
+  </si>
+  <si>
+    <t>로얄캐닌 헤어볼 케어</t>
+  </si>
+  <si>
+    <t>로얄캐닌 인스팅티브 파우치 85g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 하이포알러제닉</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니 어덜트 파우치 85g</t>
   </si>
   <si>
     <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 관절</t>
   </si>
   <si>
-    <t>네슬레퓨리나 팬시피스트 인스퍼레이션 치킨 70g</t>
-  </si>
-  <si>
-    <t>대주펫푸드 캐츠맘</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 그레인프리 퍼포먼스</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 프로플랜 라지브리드 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 마더 &amp; 베이비캣</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 캣차우 컴플리트</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 프라임 밸런스</t>
-  </si>
-  <si>
-    <t>로얄캐닌 샴 어덜트</t>
+    <t>로얄캐닌 푸들 어덜트</t>
+  </si>
+  <si>
+    <t>천하제일사료 풍월</t>
+  </si>
+  <si>
+    <t>Taste of the Wild 토우(TOW) 훈제연어 고구마 독</t>
+  </si>
+  <si>
+    <t>씨에이코리아 마이도그</t>
+  </si>
+  <si>
+    <t>대주펫푸드 캐츠랑 키튼</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 프라임캣 그린</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 스테럴라이즈드</t>
+  </si>
+  <si>
+    <t>ANF 유기농 6Free 플러스 연어&amp;흰살생선</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 프로플랜 퍼포먼스</t>
+  </si>
+  <si>
+    <t>대주펫푸드 도그랑 클래식</t>
+  </si>
+  <si>
+    <t>yBUinsOtCI</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니 인도어 퍼피</t>
+  </si>
+  <si>
+    <t>펫큐리안 나우(now) 그레인프리 스몰브리드 어덜트</t>
+  </si>
+  <si>
+    <t>대한사료 도그라인 아지피아 플러스</t>
+  </si>
+  <si>
+    <t>ANF 유기농 6Free 플러스 소고기&amp;연어</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코2 오리고기 큰입자</t>
+  </si>
+  <si>
+    <t>한국사료 더독 닥터소프트 치킨 노령견용</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코1 양고기 큰입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 스테럴라이즈드 캣 파우치 85g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 마더 앤 베이비캣 캔 195g</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 프라임캣 에코</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 인도어 롱헤어</t>
+  </si>
+  <si>
+    <t>펫큐리안 나우(now) 프레쉬 그레인프리 스몰브리드 퍼피</t>
+  </si>
+  <si>
+    <t>ANF 램 홀리스틱 퍼피 앤 액티브 독</t>
+  </si>
+  <si>
+    <t>사조동아원 투펫 카노</t>
+  </si>
+  <si>
+    <t>로얄캐닌 키튼 파우치 85g</t>
+  </si>
+  <si>
+    <t>펫앤드림 럭셔리발란스 주식캔 양고기 380g</t>
+  </si>
+  <si>
+    <t>펫큐리안 고(go) LID 연어</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 유리너리 S/O 스몰독</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코6 센시티브솔루션 연어 큰입자</t>
   </si>
   <si>
     <t>ANF 유기농 6Free 플러스 양고기&amp;쌀</t>
   </si>
   <si>
-    <t>팜스코 나비와 야옹이</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 하이포알러제닉</t>
-  </si>
-  <si>
-    <t>로얄캐닌 엑스스몰 퍼피</t>
-  </si>
-  <si>
-    <t>KLN 퓨어비타 캣 그레인프리 치킨</t>
+    <t>카길애그리퓨리나 뉴트리나 울트라 초이스</t>
+  </si>
+  <si>
+    <t>대한사료 프리미엄 루키</t>
+  </si>
+  <si>
+    <t>로얄캐닌 골든리트리버 어덜트</t>
+  </si>
+  <si>
+    <t>코스트코 커클랜드 시그니춰 프리미엄 애견사료</t>
+  </si>
+  <si>
+    <t>대한사료 도그라인 도그피아</t>
+  </si>
+  <si>
+    <t>힐스펫뉴트리션 사이언스다이어트 어덜트 라지브리드</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코2 오리고기 작은입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 키튼 400g</t>
+  </si>
+  <si>
+    <t>대한사료 도그라인 램스피아</t>
+  </si>
+  <si>
+    <t>로얄캐닌 유리너리 케어</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니 인도어 시니어</t>
+  </si>
+  <si>
+    <t>사조동아원 투펫 퍼포먼스</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 캣 그레인프리 중성화 체중관리</t>
+  </si>
+  <si>
+    <t>네이처스버라이어티 생식본능 오리지날 치킨 캣 캔 85g</t>
+  </si>
+  <si>
+    <t>Taste of the Wild 토우(TOW) 구운오리 고구마 독</t>
+  </si>
+  <si>
+    <t>펫앤드림 럭셔리발란스 주식캔 소고기 380g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 가스트로 인테스티널 로우팻</t>
+  </si>
+  <si>
+    <t>ANF 유기농 6Free 플러스 오리고기&amp;연어</t>
+  </si>
+  <si>
+    <t>대한사료 도그라인 특수견 플러스</t>
+  </si>
+  <si>
+    <t>rGTMaEHlIX</t>
+  </si>
+  <si>
+    <t>ANF 램 홀리스틱 올라이프 스테이지 중간입자</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 울트라 액티브</t>
+  </si>
+  <si>
+    <t>내추럴발란스 LID 고구마&amp;연어 도그 포뮬라 작은입자</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 알포 1세 이상 성견용</t>
+  </si>
+  <si>
+    <t>제일펫푸드 뉴트리웰 인도어</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 쇠고기와 치즈 100g</t>
+  </si>
+  <si>
+    <t>내추럴발란스 오리지날 울트라 닭고기 시니어 포뮬라 큰입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니 퍼피</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미디움 어덜트</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 피부</t>
+  </si>
+  <si>
+    <t>힐스펫뉴트리션 사이언스다이어트 힐스 어덜트 라지브리드 치킨</t>
+  </si>
+  <si>
+    <t>서울사료 나비랑 플러스</t>
+  </si>
+  <si>
+    <t>챔피온펫푸드 오리젠 어덜트(오리지날) 독</t>
+  </si>
+  <si>
+    <t>로얄캐닌 인스팅티브 7+ 파우치 85g</t>
+  </si>
+  <si>
+    <t>ANF 램 홀리스틱 올라이프 스테이지 작은입자</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 캣 하이에너지</t>
+  </si>
+  <si>
+    <t>네츄럴코어 고양이 멀티프로테인95%</t>
+  </si>
+  <si>
+    <t>천하제일사료 자이언트 스몰바이트 작은입자</t>
+  </si>
+  <si>
+    <t>서울사료 베스트 야옹이</t>
+  </si>
+  <si>
+    <t>베스트무역 앱솔루트 홀리스틱 램앤라이스</t>
+  </si>
+  <si>
+    <t>네츄럴코어 10 Free 그레인프리 치킨 앤 살몬</t>
+  </si>
+  <si>
+    <t>내추럴발란스 LID 감자＆오리고기 도그 포뮬라 큰입자</t>
+  </si>
+  <si>
+    <t>힐스펫뉴트리션 사이언스다이어트 힐스 고양이 어덜트 치킨</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 캣 그레인프리 키튼</t>
+  </si>
+  <si>
+    <t>목우촌 펫9단 푸들전용</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 퍼포먼스 조인트케어</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 세타이어티 웨이트 매니지먼트</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 소 고양이용 100g</t>
+  </si>
+  <si>
+    <t>한국마즈 위스카스 주니어(키튼) 참치 주식 파우치 85g</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 한우 수제사료</t>
+  </si>
+  <si>
+    <t>힐스펫뉴트리션 사이언스다이어트 어덜트 라이트 스몰바이트</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절</t>
+  </si>
+  <si>
+    <t>HALO pet 헤일로 인도어 캣 연어&amp;흰살생선</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 유리너리 S/O</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 인도어 어덜트 닭고기와 현미</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 유리너리 S/O 모더레이트 칼로리</t>
+  </si>
+  <si>
+    <t>HALO pet 헤일로 키튼 연어&amp;흰살생선</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 체중조절용 어덜트 닭고기와 현미</t>
+  </si>
+  <si>
+    <t>J8yvchSF0E</t>
   </si>
   <si>
     <t>도그피앙 사각캔 닭고기 100g</t>
   </si>
   <si>
-    <t>로얄캐닌 키튼 파우치 85g</t>
-  </si>
-  <si>
-    <t>Taste of the Wild 토우(TOW) 훈제연어 고구마 독</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 쇠고기 100g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 센서블</t>
-  </si>
-  <si>
-    <t>펫큐리안 나우(now) 그레인프리 스몰브리드 어덜트</t>
-  </si>
-  <si>
-    <t>천하제일사료 풍월</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 프로플랜 퍼포먼스</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코1 양고기 큰입자</t>
-  </si>
-  <si>
-    <t>로얄캐닌 푸들 어덜트</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 쇠고기와 치즈 100g</t>
-  </si>
-  <si>
-    <t>벨포아 홀리스틱 사료</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 어덜트 파우치 85g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 인도어 퍼피</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 스테럴라이즈드</t>
-  </si>
-  <si>
-    <t>씨에이코리아 마이도그</t>
-  </si>
-  <si>
-    <t>대한사료 도그라인 아지피아</t>
-  </si>
-  <si>
-    <t>4mszJwG8wP</t>
-  </si>
-  <si>
-    <t>ANF 램 홀리스틱 퍼피 앤 액티브 독</t>
-  </si>
-  <si>
-    <t>ANF 유기농 6Free 플러스 오리고기&amp;연어</t>
-  </si>
-  <si>
-    <t>대주펫푸드 도그랑 클래식</t>
-  </si>
-  <si>
-    <t>로얄캐닌 골든리트리버 어덜트</t>
-  </si>
-  <si>
-    <t>ANF 유기농 6Free 플러스 소고기&amp;연어</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 주니어(키튼) 참치 주식 파우치 85g</t>
-  </si>
-  <si>
-    <t>제일펫푸드 뉴트리웰 인도어</t>
-  </si>
-  <si>
-    <t>로얄캐닌 인스팅티브 파우치 85g</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 어덜트 라지브리드</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코6 센시티브솔루션 연어 큰입자</t>
+    <t>네츄럴코어 강아지 베네 M32</t>
+  </si>
+  <si>
+    <t>로얄캐닌 키튼 스테럴라이즈드</t>
+  </si>
+  <si>
+    <t>내추럴발란스 야채 알러지 포뮬라</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 램 200g</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 램 피스트 85g</t>
+  </si>
+  <si>
+    <t>팜스코 네츄럴오 초록입홍합과 유기농 쌀</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절 250g</t>
+  </si>
+  <si>
+    <t>카디날코리아 퍼시캣 연어&amp;치킨 레시피</t>
+  </si>
+  <si>
+    <t>이볼브 그레인프리 캣 치킨</t>
+  </si>
+  <si>
+    <t>사조동아원 모찌네 고양이캔 츄릅 참치&amp;맛살 160g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 어덜트 연어와 현미</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니 더마컴포트</t>
+  </si>
+  <si>
+    <t>ANF 더블미트 연어 포 캣</t>
+  </si>
+  <si>
+    <t>힐스펫뉴트리션 사이언스다이어트 캣 어덜트 유리너리 헤어볼 컨트롤</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 버라이어티팩 100g 12팩 (6종 x 2p)</t>
+  </si>
+  <si>
+    <t>카르나4 그레인프리 캣 피쉬</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 오리지널 어덜트 닭고기 현미 2.27kg</t>
+  </si>
+  <si>
+    <t>인섹트업</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절 500g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 푸들 퍼피</t>
   </si>
   <si>
     <t>로얄캐닌 비숑 프리제 어덜트</t>
   </si>
   <si>
-    <t>네츄럴코어 에코2 오리고기 작은입자</t>
-  </si>
-  <si>
-    <t>펫큐리안 나우(now) 프레쉬 그레인프리 스몰브리드 퍼피</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 프라임캣 에코</t>
-  </si>
-  <si>
-    <t>ANF 유기농 6Free 플러스 연어&amp;흰살생선</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 어덜트 센서티브 스토막 앤 스킨</t>
-  </si>
-  <si>
-    <t>펫큐리안 고(go) LID 연어</t>
+    <t>로얄캐닌 말티즈 어덜트</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코6 센시티브솔루션 연어 작은입자</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 팬시피스트 청키 치킨 85g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미디움 퍼피</t>
   </si>
   <si>
     <t>로얄캐닌 스타터 무스 마더&amp;베이비독 195g</t>
   </si>
   <si>
-    <t>대한사료 도그라인 특수견 플러스</t>
-  </si>
-  <si>
-    <t>사조동아원 투펫 카노</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 퍼피</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 가스트로 인테스티널 로우팻</t>
-  </si>
-  <si>
-    <t>로얄캐닌 스테럴라이즈드 캣 파우치 85g</t>
-  </si>
-  <si>
-    <t>한국사료 더독 닥터소프트 치킨 노령견용</t>
+    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 장</t>
+  </si>
+  <si>
+    <t>풀무원 아미오 캣 그레인프리 키튼&amp;어덜트</t>
+  </si>
+  <si>
+    <t>내추럴발란스 울트라 프리미엄 WBH 닭고기 &amp; 연어 캣 포뮬라</t>
+  </si>
+  <si>
+    <t>ANF 램 프리미엄 28 올라이프스테이지</t>
+  </si>
+  <si>
+    <t>ANF 오가닉 오리&amp;귀리</t>
+  </si>
+  <si>
+    <t>대한사료 프리미엄 진도</t>
+  </si>
+  <si>
+    <t>대한사료 네츄럴프로세스 소프트키블 연어</t>
   </si>
   <si>
     <t>로얄캐닌 미니 어덜트</t>
   </si>
   <si>
-    <t>네츄럴코어 에코2 오리고기 큰입자</t>
-  </si>
-  <si>
-    <t>로얄캐닌 마더 앤 베이비캣 캔 195g</t>
-  </si>
-  <si>
-    <t>대한사료 프리미엄 루키</t>
-  </si>
-  <si>
-    <t>네츄럴코어 강아지 베네 M32</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 피부</t>
-  </si>
-  <si>
-    <t>대한사료 도그라인 아지피아 플러스</t>
-  </si>
-  <si>
-    <t>로얄캐닌 헤어볼 케어</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 울트라 초이스</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 인도어 시니어</t>
-  </si>
-  <si>
-    <t>로얄캐닌 유리너리 케어</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 프라임캣 그린</t>
-  </si>
-  <si>
-    <t>코스트코 커클랜드 시그니춰 프리미엄 애견사료</t>
-  </si>
-  <si>
-    <t>베스트무역 앱솔루트 홀리스틱 램앤라이스</t>
-  </si>
-  <si>
-    <t>내추럴발란스 LID 감자＆오리고기 도그 포뮬라 큰입자</t>
-  </si>
-  <si>
-    <t>BbbYNyvjxf</t>
-  </si>
-  <si>
-    <t>사조동아원 투펫 퍼포먼스</t>
-  </si>
-  <si>
-    <t>ANF 램 홀리스틱 올라이프 스테이지 중간입자</t>
-  </si>
-  <si>
-    <t>ANF 램 프리미엄 28 올라이프스테이지</t>
-  </si>
-  <si>
-    <t>Taste of the Wild 토우(TOW) 구운오리 고구마 독</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 울트라 액티브</t>
+    <t>어스본 홀리스틱 캣 그레인프리 프리머티브 필라인</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 비스트로 캣 전연령 고양이용</t>
+  </si>
+  <si>
+    <t>한국인삼공사 지니펫 더 홀리스틱 홍삼&amp;국내산 오리</t>
+  </si>
+  <si>
+    <t>로얄캐닌 페르시안 어덜트</t>
+  </si>
+  <si>
+    <t>내추럴발란스 LID 닭고기＆고구마 도그 포뮬라</t>
+  </si>
+  <si>
+    <t>HCABBNLxlY</t>
+  </si>
+  <si>
+    <t>로얄캐닌 불독 어덜트</t>
+  </si>
+  <si>
+    <t>대주펫푸드 캐츠랑 캣츠러브 오리와 치킨</t>
+  </si>
+  <si>
+    <t>로얄캐닌 에이징 12+ 젤리 파우치 85g</t>
+  </si>
+  <si>
+    <t>동원F&amp;B 뉴트리플랜 고양이 키튼 플러스</t>
+  </si>
+  <si>
+    <t>태비탑퍼 테비랑 유산균</t>
+  </si>
+  <si>
+    <t>Taste of the Wild 토우(TOW) 훈제연어 고구마 퍼피</t>
+  </si>
+  <si>
+    <t>팜스코 캣츠온 라이트</t>
+  </si>
+  <si>
+    <t>태비탑퍼 미스터캣 20 연어</t>
+  </si>
+  <si>
+    <t>브리더스초이스 아보덤 조인트헬스 그레인프리</t>
+  </si>
+  <si>
+    <t>팜스코 도그닥터 히트</t>
+  </si>
+  <si>
+    <t>채널펫 비아파 락톨 퍼피밀크 250g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 하이포알러제닉 스몰독</t>
   </si>
   <si>
     <t>대주펫푸드 캐츠랑 전연령 동물성 단백질원 80% 이상</t>
   </si>
   <si>
-    <t>로얄캐닌 독 세타이어티 웨이트 매니지먼트</t>
+    <t>로얄캐닌 맥시 퍼피</t>
+  </si>
+  <si>
+    <t>키츠가든 비바에센셜 인섹트 어덜트</t>
+  </si>
+  <si>
+    <t>천하제일사료 스피루 큰입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 맥시 어덜트</t>
+  </si>
+  <si>
+    <t>팜스코 도그닥터 특수견</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 7세이상 시니어 닭고기와 현미</t>
+  </si>
+  <si>
+    <t>로얄캐닌 오랄 케어</t>
+  </si>
+  <si>
+    <t>산시아코리아 로투스(LOTUS) 캣 그레인프리 돼지고기 파테 78g</t>
+  </si>
+  <si>
+    <t>네츄럴코어 고양이 베네 M70</t>
+  </si>
+  <si>
+    <t>지앤몰 듀먼 닭가슴살 &amp; 채소 오리지널 50g</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 불고기 100g</t>
+  </si>
+  <si>
+    <t>지앤몰 듀먼 영양특식 맛보기 100g 7종</t>
+  </si>
+  <si>
+    <t>천하제일사료 진도예찬 성견</t>
+  </si>
+  <si>
+    <t>챔피온펫푸드 오리젠 시니어 독</t>
+  </si>
+  <si>
+    <t>지앤몰 듀먼 든든하개 닭가슴살 &amp; 연어 빛나는 피모 100g</t>
+  </si>
+  <si>
+    <t>지앤몰 듀먼 든든하개 닭가슴살 &amp; 초록입홍합 튼튼관절 100g</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 원(ONE) 1세 이하 강아지용</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 원(ONE) 까다로운입맛</t>
+  </si>
+  <si>
+    <t>대주펫푸드 도그랑 훼미리 진도</t>
+  </si>
+  <si>
+    <t>한국스마트사료 캣티즌 전연령 고양이 사료</t>
+  </si>
+  <si>
+    <t>바비스팩토리 말랑말랑 소프트밥 소고기</t>
+  </si>
+  <si>
+    <t>렉스(REX) 내츄럴레인지 센스티브독 연어와 감자</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 가든 야채가 곁들여진 칠면조 살코기</t>
+  </si>
+  <si>
+    <t>로얄캐닌 닥스훈트 어덜트</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 토마토를 곁틀인 클래식 스타일의 양고기</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 가스트로 인테스티널</t>
+  </si>
+  <si>
+    <t>로얄캐닌 헤어&amp;스킨 케어</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 양 강아지용 100g</t>
+  </si>
+  <si>
+    <t>pAghe7eJkd</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 헤파틱</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 오리 강아지용 100g</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 닭 강아지용 100g</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 소 강아지용 100g</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 프로플랜 슈레드 블렌드</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 닭 고양이용 100g</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 양 고양이용 100g</t>
+  </si>
+  <si>
+    <t>포옹 생식선생 오리 고양이용 100g</t>
+  </si>
+  <si>
+    <t>ANF 6Free 캣 인도어 어덜트</t>
+  </si>
+  <si>
+    <t>천하제일사료 스피루 작은입자</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 원(ONE) 11세 이상 노령견용</t>
+  </si>
+  <si>
+    <t>한국인삼공사 지니펫 더 홀리스틱 홍삼&amp;호주산 양고기</t>
+  </si>
+  <si>
+    <t>ANF 램 홀리스틱 헬시웨이트 앤 조인트</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 비스트로 캣 키튼</t>
+  </si>
+  <si>
+    <t>로얄캐닌 다이제스트 센서티브 케어 파우치 85g</t>
+  </si>
+  <si>
+    <t>트로벳 신장질환&amp;결석예방 RID(애묘용)</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 레날</t>
+  </si>
+  <si>
+    <t>이리온 웰츠 저지방 다이어트 캣</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 원(ONE) 1세 이상 성견용 양고기</t>
+  </si>
+  <si>
+    <t>카디날코리아 퍼시캣 치킨&amp;칠면조 레시피</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 원(ONE) 체중건강 맞춤식</t>
+  </si>
+  <si>
+    <t>대한사료 프로베스트 퍼포먼스</t>
+  </si>
+  <si>
+    <t>ANF 독 그레인프리 칠면조와 병아리콩</t>
+  </si>
+  <si>
+    <t>카나간그룹 카나간 프리런 치킨 포 캣</t>
+  </si>
+  <si>
+    <t>챔피온펫푸드 오리젠 퍼피</t>
+  </si>
+  <si>
+    <t>Taste of the Wild 토우(TOW) 송어 훈제연어 캣</t>
+  </si>
+  <si>
+    <t>바비스팩토리 말랑말랑 소프트밥 오리고기</t>
+  </si>
+  <si>
+    <t>바비스팩토리 말랑말랑 소프트밥 양고기</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 치킨 앤 램 피스트 85g</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 헤어볼</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 연어가 곁들여진 프리미엄 쇠고기</t>
+  </si>
+  <si>
+    <t>우성사료 다이너스티</t>
+  </si>
+  <si>
+    <t>토스칸 카르네 그레인프리 독 푸드</t>
+  </si>
+  <si>
+    <t>한국사료 더독 닥터소프트 야채 전견용</t>
+  </si>
+  <si>
+    <t>천하제일사료 아스틴</t>
+  </si>
+  <si>
+    <t>팜스코 캣츠에비뉴 캣츠 에비뉴</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 램</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 베네티브 캣</t>
+  </si>
+  <si>
+    <t>캐니대 독 치킨 앤 라이스 1,000g</t>
+  </si>
+  <si>
+    <t>6uxwUJ6Z5K</t>
+  </si>
+  <si>
+    <t>챔피온펫푸드 아카나 아카나 어덜트 스몰브리드</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 오리</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 베스트 3종 100g 18입</t>
+  </si>
+  <si>
+    <t>한국마즈 위스카스 주니어 고등어 주식 파우치 85g</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 연어</t>
+  </si>
+  <si>
+    <t>ANF AD30 고양이사료</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 심플리 크래프티드 쇠고기, 닭고기, 자색감자, 콩, 적미 37g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 어덜트 센시티브</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 에이징 12+</t>
+  </si>
+  <si>
+    <t>카나간그룹 카나간 프리런 치킨 포 캣 375g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 시츄 어덜트</t>
+  </si>
+  <si>
+    <t>ANF 6Free 캣 인도어 키튼</t>
+  </si>
+  <si>
+    <t>한국마즈 쉬바 참치와 치킨 주식 파우치 70g</t>
+  </si>
+  <si>
+    <t>KLN 뉴트리소스 그레인프리 오션 셀렉트</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 피모</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 연어 200g</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 비프 피스트 85g</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 오리 200g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 키튼 닭고기와 현미</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 인도어 어덜트 흰살생선과 현미</t>
+  </si>
+  <si>
+    <t>네츄럴코어 고양이 베네 M47</t>
+  </si>
+  <si>
+    <t>대한사료 프로베스트 캣 밸런스</t>
+  </si>
+  <si>
+    <t>웰펫 웰니스 코어 시그니쳐 플레이크 참치 연어 캔 79g</t>
+  </si>
+  <si>
+    <t>이리온 웰츠 키튼</t>
+  </si>
+  <si>
+    <t>이볼브 캣 클래식 연어</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 치킨 피스트 85g</t>
+  </si>
+  <si>
+    <t>카나간그룹 카나간 덴탈 플라그오프 포 독 스몰브리드</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 유리너리 S/O</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 헤어볼 250g</t>
+  </si>
+  <si>
+    <t>팜스코 캣츠미</t>
+  </si>
+  <si>
+    <t>HALO pet 헤일로 독 스몰브리드 치킨&amp;치킨간</t>
+  </si>
+  <si>
+    <t>내추럴발란스 독 샘플 60g</t>
+  </si>
+  <si>
+    <t>오네스토펫푸드 애견비책 햇밥 소고기 120g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 파우치 스테럴라이즈드 젤리 85g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 어덜트 칠면조와 현미</t>
+  </si>
+  <si>
+    <t>카르나4 그레인프리 캣 치킨</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 피모 250g</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 알포 1세 이하 강아지용</t>
+  </si>
+  <si>
+    <t>내추럴발란스 독 캔 포뮬라 LID 고구마&amp;연어 170g</t>
+  </si>
+  <si>
+    <t>사조동아원 모찌네 고양이캔 츄릅 참치&amp;닭가슴살 160g</t>
+  </si>
+  <si>
+    <t>사조동아원 캣티거</t>
+  </si>
+  <si>
+    <t>ssH1zB6j6y</t>
+  </si>
+  <si>
+    <t>사조동아원 모찌네 고양이캔 츄릅 참치&amp;연어 160g</t>
+  </si>
+  <si>
+    <t>대한사료 프로베스트 캣 어덜트</t>
+  </si>
+  <si>
+    <t>한국사료 더독 닥터소프트 그레인프리 치킨 전견용</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코9b 시니어 연어+고구마</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 심플리 크래프티드 닭고기, 당근, 감자, 완두콩 37g</t>
+  </si>
+  <si>
+    <t>퓨어럭스 퓨어럭스 연어 어덜트 독</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 레날 스페셜 RSF26</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 건강백서 말티즈</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 심플리 크래프티드 닭고기, 당근, 콩 37g</t>
+  </si>
+  <si>
+    <t>동원F&amp;B 뉴트리플랜 모이스트루 참치 닭고기 주식파우치 캣 어덜트 80g</t>
+  </si>
+  <si>
+    <t>카디날코리아 퍼시캣 연어 레시피</t>
+  </si>
+  <si>
+    <t>제일펫푸드 슈슈 프리미엄 캣 키튼</t>
+  </si>
+  <si>
+    <t>한국마즈 위스카스 시니어 고등어 주식 파우치 85g</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코10 베지테리언</t>
+  </si>
+  <si>
+    <t>코헨로쉬 13</t>
+  </si>
+  <si>
+    <t>Addiction Pet Food 위시본 독 양고기</t>
+  </si>
+  <si>
+    <t>게더 캣 프리에이커 치킨</t>
+  </si>
+  <si>
+    <t>우성사료 도그데이</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 6세이상</t>
+  </si>
+  <si>
+    <t>한국사료 더독 닥터소프트 그레인프리 오리 노령견용</t>
+  </si>
+  <si>
+    <t>네츄럴코어 10 Free 그레인프리 치킨 앤 살몬 200g</t>
+  </si>
+  <si>
+    <t>대한사료 프로베스트 캣 퍼플</t>
+  </si>
+  <si>
+    <t>HALO pet 헤일로 인도어 캣 치킨&amp;치킨간</t>
+  </si>
+  <si>
+    <t>홀리홀릭스 유기농 가수분해 오리 + 연어 + 양 200g 3종</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 소프트살몬</t>
+  </si>
+  <si>
+    <t>지앤몰 듀먼 닭가슴살 &amp; 빌베리 눈가반짝 100g</t>
+  </si>
+  <si>
+    <t>키츠가든 비바에센셜 연어 어덜트</t>
+  </si>
+  <si>
+    <t>펫큐리안 고(go) 캣 LID 오리</t>
+  </si>
+  <si>
+    <t>HALO pet 헤일로 캣 센서티브 씨푸드 메들리</t>
+  </si>
+  <si>
+    <t>헬로도기 수제조각캔 소고기와 야채 400g</t>
+  </si>
+  <si>
+    <t>도그피앙 사각캔 양고기 100g</t>
+  </si>
+  <si>
+    <t>CARU 캣 클래식 연어&amp;칠면조 스튜 170g</t>
+  </si>
+  <si>
+    <t>보나시보 퍼피 램 라이스</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코1 양고기 중간입자</t>
+  </si>
+  <si>
+    <t>챔피온펫푸드 오리젠 캣&amp;키튼</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 이베이 전용 패키지 100g</t>
+  </si>
+  <si>
+    <t>사조동아원 투펫 닭고기 올라이프</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 알포 리틀프렌즈 1세이상 장건강</t>
+  </si>
+  <si>
+    <t>바이탈린 키튼 브리티쉬치킨</t>
+  </si>
+  <si>
+    <t>산시아코리아 K9 내추럴(K9Natural) 캣 램 앤 살몬 피스트 85g</t>
+  </si>
+  <si>
+    <t>KwCy3ntIkn</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 헤어볼 500g</t>
+  </si>
+  <si>
+    <t>밴앤커머스 알모네이쳐 HFC 주식캔 70g 10종 혼합</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 수제사료 피부개선 600g</t>
+  </si>
+  <si>
+    <t>내추럴발란스 울트라 프리미엄 W.B.H 닭고기&amp;오리&amp;현미 퍼피 캔 170g</t>
+  </si>
+  <si>
+    <t>그랜마메이스 컨트리 네츄럴스 그랜마메이스 그레인프리 치킨</t>
+  </si>
+  <si>
+    <t>대한사료 네츄럴프로세스 소프트키블 치킨 1kg (500g x 2P)</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 로즈마리와 브로콜리를 곁들인 양고기 100g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 캣 헤어볼 어덜트 닭고기와 현미</t>
+  </si>
+  <si>
+    <t>트로벳 알러지&amp;피부질환 - RRD(애견용) 400g</t>
+  </si>
+  <si>
+    <t>씨에이코리아 톰독</t>
+  </si>
+  <si>
+    <t>서울사료 나비랑 플러스 500g</t>
+  </si>
+  <si>
+    <t>마쯔리 럭셔리독 사각캔 쇠고기 100g</t>
+  </si>
+  <si>
+    <t>마쯔리 럭셔리독 사각캔 닭고기 100g</t>
+  </si>
+  <si>
+    <t>Addiction Pet Food 위시본 캣 홀리스틱 그레인프리 소고기</t>
+  </si>
+  <si>
+    <t>펫토피아 애니 찹스</t>
+  </si>
+  <si>
+    <t>버섯연구소 마이펫닥터 인섹트 더 제로</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 7세이상 칠면조와 쌀 100g</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 리얼오플러스 캣 인도어케어</t>
+  </si>
+  <si>
+    <t>에이티바이오 맘블레스 캣 그레인프리 피모 500g</t>
+  </si>
+  <si>
+    <t>한국마즈 시저 허브딜과 치즈를 곁들인 쇠고기 100g</t>
+  </si>
+  <si>
+    <t>한국마즈 뉴트로 내추럴초이스 스몰브리드 시니어</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 알러지프리</t>
+  </si>
+  <si>
+    <t>네츄럴코어 강아지 베네 M50 큰입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 엑스스몰 어덜트</t>
+  </si>
+  <si>
+    <t>네츄럴코어 에코4 슬림다운</t>
+  </si>
+  <si>
+    <t>펫큐리안 게더 프리에이커 캣 치킨</t>
+  </si>
+  <si>
+    <t>태비탑퍼 테비랑 생연어</t>
   </si>
   <si>
     <t>비타크래프트 포에시 하트 치킨&amp;야채 85g</t>
   </si>
   <si>
-    <t>네슬레퓨리나 팬시피스트 청키 치킨 85g</t>
-  </si>
-  <si>
-    <t>서울사료 나비랑 플러스</t>
-  </si>
-  <si>
-    <t>대주펫푸드 캐츠랑 키튼</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 고등어와 연어 주식 파우치 85g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 인도어 롱헤어</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 하이에너지</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미디움 어덜트</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 소 고양이용 100g</t>
-  </si>
-  <si>
-    <t>한국마즈 뉴트로 내추럴초이스 캣 인도어 어덜트 닭고기와 현미</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 그레인프리 키튼</t>
-  </si>
-  <si>
-    <t>네츄럴코어 고양이 베네 M70</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 힐스 어덜트 라지브리드 치킨</t>
-  </si>
-  <si>
-    <t>팜스코 도그닥터 히트</t>
-  </si>
-  <si>
-    <t>네츄럴코어 고양이 멀티프로테인95%</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 한우 수제사료</t>
-  </si>
-  <si>
-    <t>ANF 램 홀리스틱 올라이프 스테이지 작은입자</t>
-  </si>
-  <si>
-    <t>천하제일사료 자이언트 스몰바이트 작은입자</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 유리너리 S/O 스몰독</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 유리너리 S/O 모더레이트 칼로리</t>
-  </si>
-  <si>
-    <t>네츄럴코어 10 Free 그레인프리 치킨 앤 살몬</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 어덜트 라이트 스몰바이트</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 힐스 고양이 어덜트 치킨</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 퍼포먼스 조인트케어</t>
-  </si>
-  <si>
-    <t>목우촌 펫9단 푸들전용</t>
-  </si>
-  <si>
-    <t>대한사료 네츄럴프로세스 소프트키블 연어</t>
-  </si>
-  <si>
-    <t>ANF 오가닉 오리&amp;귀리</t>
-  </si>
-  <si>
-    <t>로얄캐닌 닥스훈트 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 키튼 스테럴라이즈드</t>
-  </si>
-  <si>
-    <t>서울사료 베스트 야옹이</t>
-  </si>
-  <si>
-    <t>풀무원 아미오 캣 그레인프리 키튼&amp;어덜트</t>
-  </si>
-  <si>
-    <t>바비스팩토리 말랑말랑 소프트밥 오리고기</t>
-  </si>
-  <si>
-    <t>대주펫푸드 도그랑 훼미리 진도</t>
+    <t>네츄럴코어 에코1 양고기 작은입자</t>
+  </si>
+  <si>
+    <t>PCG 스마트하트골드 나인케어 캣 인도어</t>
+  </si>
+  <si>
+    <t>사조동아원 투펫 스페셜 맥스</t>
+  </si>
+  <si>
+    <t>펫큐리안 나우(now) 그레인프리 스몰브리드 어덜트 디에프</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 유리너리 S/O 파우치 85g</t>
+  </si>
+  <si>
+    <t>로얄캐닌 어덜트 라이트 캔 195g</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 수제사료 오리연어감자 사료</t>
+  </si>
+  <si>
+    <t>카길애그리퓨리나 뉴트리나 울트라 오리지널</t>
+  </si>
+  <si>
+    <t>엔젤스독 연어&amp;프리바이오틱스 전연령</t>
+  </si>
+  <si>
+    <t>토탈알리멘토스 이퀄리브리오 키튼</t>
+  </si>
+  <si>
+    <t>V7qgNVIijc</t>
+  </si>
+  <si>
+    <t>네슬레퓨리나 프로플랜 캣 옵티레날 어덜트</t>
+  </si>
+  <si>
+    <t>대한사료 홈시리즈 홈캣</t>
+  </si>
+  <si>
+    <t>펫큐리안 나우(now) 프레쉬 그레인프리 스몰브리드 시니어</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 저칼로리 곤약 다이어트 수제사료</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 수제사료 피부개선</t>
   </si>
   <si>
     <t>네슬레퓨리나 팬시피스트 화이트라벨 참치와 흰살생선 85g</t>
   </si>
   <si>
-    <t>FTBJf9g49t</t>
-  </si>
-  <si>
-    <t>로얄캐닌 말티즈 어덜트</t>
-  </si>
-  <si>
-    <t>HALO pet 헤일로 인도어 캣 연어&amp;흰살생선</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미디움 퍼피</t>
-  </si>
-  <si>
-    <t>내추럴발란스 LID 고구마&amp;연어 도그 포뮬라 작은입자</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 램 200g</t>
-  </si>
-  <si>
-    <t>이볼브 그레인프리 캣 치킨</t>
-  </si>
-  <si>
-    <t>내추럴발란스 울트라 프리미엄 WBH 닭고기 &amp; 연어 캣 포뮬라</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 캣 어덜트 유리너리 헤어볼 컨트롤</t>
-  </si>
-  <si>
-    <t>ANF 6Free 캣 인도어 키튼</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 장</t>
-  </si>
-  <si>
-    <t>하림펫푸드 밥이보약 CAT 걱정없는 헤어볼</t>
-  </si>
-  <si>
-    <t>챔피온펫푸드 오리젠 시니어 독</t>
-  </si>
-  <si>
-    <t>카르나4 그레인프리 캣 피쉬</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 알포 1세 이상 성견용</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 버라이어티팩 100g 12팩 (6종 x 2p)</t>
-  </si>
-  <si>
-    <t>인섹트업</t>
-  </si>
-  <si>
-    <t>로얄캐닌 인스팅티브 7+ 파우치 85g</t>
-  </si>
-  <si>
-    <t>천하제일사료 스피루 큰입자</t>
-  </si>
-  <si>
-    <t>한국스마트사료 캣티즌 전연령 고양이 사료</t>
-  </si>
-  <si>
-    <t>내추럴발란스 오리지날 울트라 닭고기 시니어 포뮬라 큰입자</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 그레인프리 중성화 체중관리</t>
-  </si>
-  <si>
-    <t>한국인삼공사 지니펫 더 홀리스틱 홍삼&amp;호주산 양고기</t>
-  </si>
-  <si>
-    <t>뉴트리나 건강백서 순 푸들</t>
-  </si>
-  <si>
-    <t>인터펫코리아 도비 스페셜</t>
-  </si>
-  <si>
-    <t>로얄캐닌 불독 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 푸들 퍼피</t>
-  </si>
-  <si>
-    <t>로얄캐닌 하이포알러제닉 스몰독</t>
-  </si>
-  <si>
-    <t>태비탑퍼 테비랑 유산균</t>
-  </si>
-  <si>
-    <t>내추럴발란스 LID 닭고기＆고구마 도그 포뮬라</t>
-  </si>
-  <si>
-    <t>천하제일사료 진도예찬 성견</t>
-  </si>
-  <si>
-    <t>Taste of the Wild 토우(TOW) 훈제연어 고구마 퍼피</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 비스트로 캣 전연령 고양이용</t>
-  </si>
-  <si>
-    <t>지앤몰 듀먼 닭가슴살 &amp; 채소 오리지널 50g</t>
-  </si>
-  <si>
-    <t>지앤몰 듀먼 영양특식 맛보기 100g 7종</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 불고기 100g</t>
-  </si>
-  <si>
-    <t>PCG 스마트하트골드 나인케어 캣 체형관리</t>
-  </si>
-  <si>
-    <t>KrdZP7D0sg</t>
-  </si>
-  <si>
-    <t>지앤몰 듀먼 든든하개 닭가슴살 &amp; 연어 빛나는 피모 100g</t>
-  </si>
-  <si>
-    <t>ANF AD30 고양이사료</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 헤파틱</t>
-  </si>
-  <si>
-    <t>지앤몰 듀먼 든든하개 닭가슴살 &amp; 초록입홍합 튼튼관절 100g</t>
-  </si>
-  <si>
-    <t>대주펫푸드 캐츠랑 캣츠러브 오리와 치킨</t>
-  </si>
-  <si>
-    <t>한국인삼공사 지니펫 더 홀리스틱 홍삼&amp;국내산 오리</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 원(ONE) 까다로운입맛</t>
-  </si>
-  <si>
-    <t>챔피온펫푸드 아카나 아카나 어덜트 스몰브리드</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 가스트로 인테스티널</t>
-  </si>
-  <si>
-    <t>내추럴발란스 야채 알러지 포뮬라</t>
-  </si>
-  <si>
-    <t>하림펫푸드 더리얼 그레인프리 오븐베이크드 닭고기 시니어</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 닭 고양이용 100g</t>
-  </si>
-  <si>
-    <t>동원F&amp;B 뉴트리플랜 고양이 키튼 플러스</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 양 고양이용 100g</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 오리 고양이용 100g</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 원(ONE) 1세 이하 강아지용</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 양 강아지용 100g</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 알포 리틀프렌즈 6세이상 노령견용</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 오리 강아지용 100g</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 닭 강아지용 100g</t>
-  </si>
-  <si>
-    <t>어스본 홀리스틱 캣 그레인프리 프리머티브 필라인</t>
-  </si>
-  <si>
-    <t>포옹 생식선생 소 강아지용 100g</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 원(ONE) 11세 이상 노령견용</t>
-  </si>
-  <si>
-    <t>키츠가든 비바에센셜 인섹트 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 스타터 마더&amp;베이비독</t>
-  </si>
-  <si>
-    <t>Taste of the Wild 토우(TOW) 송어 훈제연어 캣</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 원(ONE) 1세 이상 성견용 양고기</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 원(ONE) 체중건강 맞춤식</t>
-  </si>
-  <si>
-    <t>로얄캐닌 맥시 어덜트</t>
-  </si>
-  <si>
-    <t>산시아코리아 로투스(LOTUS) 캣 그레인프리 돼지고기 파테 78g</t>
-  </si>
-  <si>
-    <t>팜스코 캣츠온 라이트</t>
-  </si>
-  <si>
-    <t>사조동아원 옵티원 캣 오리해바라기씨</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 유리너리 S/O</t>
-  </si>
-  <si>
-    <t>이리온 웰츠 저지방 다이어트 캣</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 프로플랜 슈레드 블렌드</t>
-  </si>
-  <si>
-    <t>대한사료 프로베스트 퍼포먼스</t>
-  </si>
-  <si>
-    <t>ANF 6Free 캣 인도어 어덜트</t>
-  </si>
-  <si>
-    <t>바비스팩토리 말랑말랑 소프트밥 소고기</t>
-  </si>
-  <si>
-    <t>사조동아원 캣티거</t>
+    <t>힐스펫뉴트리션 사이언스다이어트 캣 어덜트 라이트 헤어볼 컨트롤</t>
+  </si>
+  <si>
+    <t>대한사료 프로베스트 퍼피</t>
+  </si>
+  <si>
+    <t>내추럴발란스 LID 감자＆오리고기 도그 포뮬라 작은입자</t>
+  </si>
+  <si>
+    <t>로얄캐닌 아로마 엑시전트</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 수제사료 피부개선 1kg (200g x 5P)</t>
+  </si>
+  <si>
+    <t>로얄캐닌 엑스스몰 어덜트 8+</t>
+  </si>
+  <si>
+    <t>제일펫푸드 원더캣츠 전묘용</t>
+  </si>
+  <si>
+    <t>ANF 유기농 6Free 플러스 칠면조&amp;귀리</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 퍼피 작은입자</t>
+  </si>
+  <si>
+    <t>대주펫푸드 도그랑 진도 골드</t>
+  </si>
+  <si>
+    <t>대한사료 이즈칸 캣 그레인프리 시니어</t>
   </si>
   <si>
     <t>대한사료 홈시리즈 홈앤독</t>
   </si>
   <si>
-    <t>로얄캐닌 맥시 퍼피</t>
-  </si>
-  <si>
-    <t>w74gJH56VN</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 가든 야채가 곁들여진 칠면조 살코기</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 토마토를 곁틀인 클래식 스타일의 양고기</t>
-  </si>
-  <si>
-    <t>로얄캐닌 페르시안 어덜트</t>
-  </si>
-  <si>
-    <t>토탈알리멘토스 이퀄리브리오 키튼</t>
-  </si>
-  <si>
-    <t>렉스(REX) 내츄럴레인지 센스티브독 연어와 감자</t>
-  </si>
-  <si>
-    <t>챔피온펫푸드 오리젠 퍼피</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 비스트로 캣 키튼</t>
-  </si>
-  <si>
-    <t>팜스코 나비야</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 에이징 12+</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 레날</t>
-  </si>
-  <si>
-    <t>네츄럴코어 고양이 베네 M47</t>
-  </si>
-  <si>
-    <t>제일펫푸드 원더캣츠 전묘용</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코4 슬림다운</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코10 베지테리언</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코9b 시니어 연어+고구마</t>
-  </si>
-  <si>
-    <t>로얄캐닌 오랄 케어</t>
-  </si>
-  <si>
-    <t>사조동아원 투펫 스페셜 맥스</t>
-  </si>
-  <si>
-    <t>바비스팩토리 말랑말랑 소프트밥 양고기</t>
-  </si>
-  <si>
-    <t>카나간그룹 카나간 프리런 치킨 포 캣</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 시니어 고등어 주식 파우치 85g</t>
-  </si>
-  <si>
-    <t>ANF 램 홀리스틱 헬시웨이트 앤 조인트</t>
-  </si>
-  <si>
-    <t>펫앤드림 럭셔리발란스 주식캔 양고기 380g</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 말티즈</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 베네티브 캣</t>
-  </si>
-  <si>
-    <t>펫큐리안 나우(now) 그레인프리 스몰브리드 어덜트 디에프</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 주니어 고등어 주식 파우치 85g</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코1 양고기 작은입자</t>
-  </si>
-  <si>
-    <t>한국사료 더독 닥터소프트 야채 전견용</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 연어가 곁들여진 프리미엄 쇠고기</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 램</t>
-  </si>
-  <si>
-    <t>토스칸 카르네 그레인프리 독 푸드</t>
-  </si>
-  <si>
-    <t>캐니대 독 치킨 앤 라이스 1,000g</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 연어</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 오리</t>
-  </si>
-  <si>
-    <t>태비탑퍼 테비랑 생연어</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 심플리 크래프티드 쇠고기, 닭고기, 자색감자, 콩, 적미 37g</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 베스트 3종 100g 18입</t>
-  </si>
-  <si>
-    <t>웰펫 웰니스 코어 시그니쳐 플레이크 참치 연어 캔 79g</t>
+    <t>에이티바이오 아침애 수제사료 피부개선 1,800g (200g x 9P)</t>
+  </si>
+  <si>
+    <t>로얄캐닌 캣 레날 셀렉트</t>
+  </si>
+  <si>
+    <t>로얄캐닌 미니어처 슈나우저 어덜트</t>
+  </si>
+  <si>
+    <t>네이처스버라이어티 인스팅트 LID 칠면조고기 캣 키블</t>
   </si>
   <si>
     <t>어스본 홀리스틱 캣 그레인프리 와일드 씨 캐치</t>
   </si>
   <si>
-    <t>Ci2cYE99ym</t>
-  </si>
-  <si>
-    <t>이볼브 캣 클래식 연어</t>
-  </si>
-  <si>
-    <t>카디날코리아 퍼시캣 연어 레시피</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 피모</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 심플리 크래프티드 닭고기, 고구마, 사과, 보리, 시금치 37g</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 연어 200g</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 오리 200g</t>
-  </si>
-  <si>
-    <t>펫큐리안 고(go) 캣 LID 오리</t>
-  </si>
-  <si>
-    <t>카나간그룹 카나간 덴탈 플라그오프 포 독 스몰브리드</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 심플리 크래프티드 닭고기, 당근, 콩 37g</t>
-  </si>
-  <si>
-    <t>동원F&amp;B 뉴트리플랜 모이스트루 참치 닭고기 주식파우치 캣 어덜트 80g</t>
-  </si>
-  <si>
-    <t>펫큐리안 게더 프리에이커 캣 치킨</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 리얼오플러스 캣 인도어케어</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 수제사료 오리연어감자 사료</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 유리너리 S/O</t>
-  </si>
-  <si>
-    <t>팜스코 윌비스타 골드 어덜트</t>
-  </si>
-  <si>
-    <t>팜스코 캣츠미</t>
-  </si>
-  <si>
-    <t>HALO pet 헤일로 독 스몰브리드 치킨&amp;치킨간</t>
-  </si>
-  <si>
-    <t>오네스토펫푸드 애견비책 햇밥 소고기 120g</t>
-  </si>
-  <si>
-    <t>대한사료 프로베스트 캣 밸런스</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 울트라 오리지널</t>
-  </si>
-  <si>
-    <t>ANF 더블미트 연어 포 캣</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절 250g</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 피모 250g</t>
-  </si>
-  <si>
-    <t>내추럴발란스 독 샘플 60g</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 알포 1세 이하 강아지용</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코6 센시티브솔루션 연어 작은입자</t>
-  </si>
-  <si>
-    <t>내추럴발란스 독 캔 포뮬라 LID 고구마&amp;연어 170g</t>
-  </si>
-  <si>
-    <t>도그피앙 사각캔 양고기 100g</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 알러지프리</t>
-  </si>
-  <si>
-    <t>한국사료 더독 닥터소프트 그레인프리 치킨 전견용</t>
-  </si>
-  <si>
-    <t>챔피온펫푸드 오리젠 캣&amp;키튼</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 심플리 크래프티드 닭고기, 당근, 감자, 완두콩 37g</t>
-  </si>
-  <si>
-    <t>퓨어럭스 퓨어럭스 연어 어덜트 독</t>
-  </si>
-  <si>
-    <t>바이탈린 키튼 브리티쉬치킨</t>
-  </si>
-  <si>
-    <t>코헨로쉬 13</t>
-  </si>
-  <si>
-    <t>그랜마메이스 컨트리 네츄럴스 그랜마메이스 그레인프리 치킨</t>
-  </si>
-  <si>
-    <t>서울사료 나비랑 플러스 500g</t>
-  </si>
-  <si>
-    <t>Addiction Pet Food 위시본 독 양고기</t>
-  </si>
-  <si>
-    <t>마쯔리 럭셔리독 사각캔 쇠고기 100g</t>
-  </si>
-  <si>
-    <t>KImbgiJB3h</t>
-  </si>
-  <si>
-    <t>마쯔리 럭셔리독 사각캔 닭고기 100g</t>
-  </si>
-  <si>
-    <t>PCG 스마트하트골드 나인케어 캣 인도어</t>
-  </si>
-  <si>
-    <t>한국사료 더독 닥터소프트 그레인프리 오리 노령견용</t>
-  </si>
-  <si>
-    <t>홀리홀릭스 유기농 가수분해 오리 + 연어 + 양 200g 3종</t>
-  </si>
-  <si>
-    <t>네츄럴코어 10 Free 그레인프리 치킨 앤 살몬 200g</t>
-  </si>
-  <si>
-    <t>하림펫푸드 더리얼 크런치 닭고기 어덜트</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 소프트살몬</t>
-  </si>
-  <si>
-    <t>지앤몰 듀먼 닭가슴살 &amp; 빌베리 눈가반짝 100g</t>
-  </si>
-  <si>
-    <t>키츠가든 비바에센셜 연어 어덜트</t>
-  </si>
-  <si>
-    <t>헬로도기 수제조각캔 소고기와 야채 400g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 인도어 그레이비 파우치 85g</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 캣 어덜트 라이트 헤어볼 컨트롤</t>
-  </si>
-  <si>
-    <t>천하제일사료 아스틴</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코1 양고기 중간입자</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 이베이 전용 패키지 100g</t>
-  </si>
-  <si>
-    <t>사조동아원 투펫 닭고기 올라이프</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 알포 리틀프렌즈 1세이상 장건강</t>
-  </si>
-  <si>
-    <t>하림펫푸드 더리얼 그레인프리 크런치 소고기 시니어</t>
+    <t>로얄캐닌 캣 인도어 7+ 젤리 파우치 85g</t>
+  </si>
+  <si>
+    <t>에이티바이오 아침애 한우 수제사료 200g</t>
+  </si>
+  <si>
+    <t>대주펫푸드 캐츠랑 어덜트</t>
   </si>
   <si>
     <t>애니펫 명품명가 올스테이지 플러스 양고기와 닭고기</t>
   </si>
   <si>
-    <t>에이티바이오 아침애 수제사료 피부개선 600g</t>
-  </si>
-  <si>
-    <t>내추럴발란스 울트라 프리미엄 W.B.H 닭고기&amp;오리&amp;현미 퍼피 캔 170g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 인도어 7+ 젤리 파우치 85g</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 로즈마리와 브로콜리를 곁들인 양고기 100g</t>
-  </si>
-  <si>
-    <t>트로벳 알러지&amp;피부질환 - RRD(애견용) 400g</t>
-  </si>
-  <si>
-    <t>씨에이코리아 톰독</t>
-  </si>
-  <si>
-    <t>펫토피아 애니 찹스</t>
-  </si>
-  <si>
-    <t>버섯연구소 마이펫닥터 인섹트 더 제로</t>
-  </si>
-  <si>
-    <t>펫앤드림 럭셔리발란스 주식캔 소고기 380g</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 7세이상 칠면조와 쌀 100g</t>
-  </si>
-  <si>
-    <t>대한사료 네츄럴프로세스 소프트키블 치킨 1kg (500g x 2P)</t>
-  </si>
-  <si>
-    <t>삼화플러스 도기 후레쉬 퍼피</t>
-  </si>
-  <si>
-    <t>대한사료 도그라인 도그피아</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 체중조절 500g</t>
-  </si>
-  <si>
-    <t>에이티바이오 맘블레스 캣 그레인프리 피모 500g</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 허브딜과 치즈를 곁들인 쇠고기 100g</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 저칼로리 곤약 다이어트 수제사료</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 수제사료 피부개선</t>
-  </si>
-  <si>
-    <t>네츄럴코어 강아지 베네 M50 큰입자</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 수제사료 피부개선 1,800g (200g x 9P)</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 그레인프리 시니어</t>
-  </si>
-  <si>
-    <t>로얄캐닌 엑스스몰 어덜트 8+</t>
-  </si>
-  <si>
-    <t>8oxix8GNb0</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 수제사료 피부개선 1kg (200g x 5P)</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 레날 파우치 치킨 85g</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 건강한 6세이상</t>
-  </si>
-  <si>
-    <t>대한사료 프로베스트 퍼피</t>
-  </si>
-  <si>
     <t>로얄캐닌 유리너리 케어 파우치 85g</t>
   </si>
   <si>
-    <t>로얄캐닌 엑스스몰 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 시츄 어덜트</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 푸들</t>
+    <t>브리더스초이스 피너클 연어 호박</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 가스트로 인테스티널</t>
+  </si>
+  <si>
+    <t>펫큐리안 나우(now) 그레인프리 어덜트 캣</t>
+  </si>
+  <si>
+    <t>로얄캐닌 독 하이포알러제닉 모더레이트 칼로리</t>
+  </si>
+  <si>
+    <t>하림펫푸드 밥이보약 DOG 활기찬 노후</t>
+  </si>
+  <si>
+    <t>삼화플러스 에프씨원 하이포알러제닉 가수분해 연어&amp;청어</t>
+  </si>
+  <si>
+    <t>한국인삼공사 지니펫 홍삼&amp;연어가득</t>
+  </si>
+  <si>
+    <t>PetAg 펫에그 KMR 고양이 파우더 분유</t>
   </si>
   <si>
     <t>대주펫푸드 도그랑 에이스 리필</t>
   </si>
   <si>
-    <t>펫큐리안 나우(now) 그레인프리 어덜트 캣</t>
-  </si>
-  <si>
-    <t>대주펫푸드 도그랑 진도 골드</t>
-  </si>
-  <si>
-    <t>ANF 유기농 6Free 플러스 칠면조&amp;귀리</t>
-  </si>
-  <si>
-    <t>에이티바이오 아침애 한우 수제사료 200g</t>
-  </si>
-  <si>
-    <t>네이처스버라이어티 인스팅트 LID 칠면조고기 캣 키블</t>
-  </si>
-  <si>
-    <t>대주펫푸드 캐츠랑 어덜트</t>
-  </si>
-  <si>
-    <t>하림펫푸드 더리얼 캣 그레인프리 크런치 닭고기 어덜트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 독 하이포알러제닉 모더레이트 칼로리</t>
-  </si>
-  <si>
-    <t>PetAg 펫에그 KMR 고양이 파우더 분유</t>
-  </si>
-  <si>
-    <t>하림펫푸드 밥이보약 DOG 활기찬 노후</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 퍼피 작은입자</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 레날 셀렉트</t>
-  </si>
-  <si>
-    <t>로얄캐닌 미니 라이트 웨이트 케어</t>
-  </si>
-  <si>
-    <t>한국인삼공사 지니펫 홍삼함유 기본식 유기농</t>
-  </si>
-  <si>
     <t>로얄캐닌 세타이어티 웨이트 매니지먼트 스몰독</t>
   </si>
   <si>
-    <t>KLN 뉴트리소스 그레인프리 컨트리 셀렉트</t>
-  </si>
-  <si>
-    <t>브리더스초이스 피너클 연어 호박</t>
-  </si>
-  <si>
-    <t>태비탑퍼 미스터캣 20 연어</t>
-  </si>
-  <si>
-    <t>뉴웨이브 고양이 홀리스틱 연어</t>
-  </si>
-  <si>
     <t>힐스펫뉴트리션 사이언스다이어트 어덜트 강아지 스튜 (치킨&amp;당근&amp;시금치) 354g</t>
   </si>
   <si>
-    <t>로얄캐닌 독 가스트로 인테스티널</t>
-  </si>
-  <si>
-    <t>한국마즈 쉬바 참치와 도미 주식 파우치 70g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 인텐스 뷰티 케어 파우치 85g</t>
-  </si>
-  <si>
-    <t>대한사료 프리미엄 진도</t>
-  </si>
-  <si>
-    <t>대주펫푸드 세라피드 요로건강</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 레날 스페셜 RSF26</t>
-  </si>
-  <si>
-    <t>밴앤커머스 알모네이쳐 HFC 내츄럴 캔 참치와 새우 70g</t>
-  </si>
-  <si>
-    <t>한국마즈 뉴트로 내추럴초이스 캣 7세이상 시니어 닭고기와 현미</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 프라임 키튼 앤 캣</t>
-  </si>
-  <si>
-    <t>브리더스초이스 아보덤 조인트헬스 그레인프리</t>
-  </si>
-  <si>
-    <t>밴앤커머스 알모네이쳐 HFC 내츄럴 캔 참치와 뱅어 70g</t>
-  </si>
-  <si>
-    <t>펫큐리안 나우(now) 프레쉬 그레인프리 스몰브리드 시니어</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 오션피쉬 성묘용</t>
-  </si>
-  <si>
-    <t>풀무원 아미오 캣 그레인프리 슬림업</t>
-  </si>
-  <si>
-    <t>A43MjLwPjM</t>
-  </si>
-  <si>
-    <t>제일펫푸드 슈슈 진도</t>
-  </si>
-  <si>
-    <t>한국스마트사료 캐츠비 고양이 사료</t>
-  </si>
-  <si>
-    <t>대주펫푸드 캐츠랑 맘앤베이비</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 캣차우 인도어</t>
-  </si>
-  <si>
-    <t>힐스펫뉴트리션 사이언스다이어트 힐스 강아지 어덜트 스몰포 치킨</t>
-  </si>
-  <si>
-    <t>채널펫 비아파 락톨 퍼피밀크 250g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 캣 파우치 스테럴라이즈드 젤리 85g</t>
-  </si>
-  <si>
-    <t>ANF 6Free 캣 웨이트 케어</t>
-  </si>
-  <si>
-    <t>챔피온펫푸드 오리젠 어덜트(오리지날) 독</t>
-  </si>
-  <si>
-    <t>펫큐리안 고(go) LID 연어 스몰바이트</t>
-  </si>
-  <si>
-    <t>Rawz 로우즈 캣 캔 96% 치킨&amp;청어 파테 156g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 푸들 어덜트 파우치 85g</t>
-  </si>
-  <si>
-    <t>대한사료 이즈칸 캣 그레인프리 올라이프</t>
-  </si>
-  <si>
-    <t>네이처스버라이어티 인스팅트 LID 칠면조고기 독 키블</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 양고기 100g</t>
-  </si>
-  <si>
-    <t>한국인삼공사 지니펫 홍삼&amp;연어가득</t>
-  </si>
-  <si>
-    <t>한국마즈 시저 쇠고기와 참치 100g</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 프로플랜 캣 롱기비스 7세이상의 노령묘</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 닭고기와 참치 주식 파우치 85g</t>
-  </si>
-  <si>
-    <t>로얄캐닌 헤어볼 케어 파우치 그레이비 85g</t>
-  </si>
-  <si>
-    <t>그린펫푸드 인섹트도그 하이포알러지 미니</t>
-  </si>
-  <si>
-    <t>로얄캐닌 모빌리티 C2P+</t>
-  </si>
-  <si>
-    <t>대한사료 캣츠아이</t>
-  </si>
-  <si>
-    <t>Rawz 로우즈 캣 캔 96% 치킨&amp;치킨 간 파테 156g</t>
-  </si>
-  <si>
-    <t>대주펫푸드 세라피드 헤어볼 관리</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 어덜트 연어</t>
-  </si>
-  <si>
-    <t>네츄럴코어 에코2 오리고기 중간입자</t>
-  </si>
-  <si>
-    <t>한국마즈 위스카스 포켓 오션피쉬</t>
-  </si>
-  <si>
-    <t>CJ제일제당 퍼피 딜리셔스</t>
-  </si>
-  <si>
-    <t>ANF 오가닉 연어&amp;감자</t>
-  </si>
-  <si>
-    <t>로얄캐닌 헤어&amp;스킨 케어</t>
-  </si>
-  <si>
-    <t>천하제일사료 바이오 진도</t>
-  </si>
-  <si>
-    <t>데이스포 제스트 올스테이지</t>
-  </si>
-  <si>
-    <t>네슬레퓨리나 팬시피스트 키튼 흰살생선 85g</t>
-  </si>
-  <si>
-    <t>카길애그리퓨리나 뉴트리나 건강백서 시츄</t>
-  </si>
-  <si>
     <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 30% / 조지방: 11%</t>
   </si>
   <si>
@@ -1264,1153 +1264,1156 @@
     <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 27% / 조지방: 13%</t>
   </si>
   <si>
-    <t>WYXqYQsZQK23105</t>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 21% / 조지방: 14%</t>
   </si>
   <si>
     <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 36% / 조지방: 18%</t>
   </si>
   <si>
+    <t>ezDKlpzIUd182467</t>
+  </si>
+  <si>
     <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
   </si>
   <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 21% / 조지방: 14%</t>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / [영양성분]  조단백: 31% / 조지방: 11%</t>
   </si>
   <si>
     <t>고양이사료 / 노령묘용(시니어) / 건식 / 작은입자(~8mm) / [기능] 신장·신부전 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 13%</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 18%</t>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 28% / 조지방: 9%</t>
   </si>
   <si>
     <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 15%</t>
   </si>
   <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 26% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 8% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 40% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 33% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 34% / 조지방: 25%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 22%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 생살코기(생분)함유 / USDA / AAFCO / [영양성분]  조단백: 26% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / [특징] AAFCO / [영양성분]  조단백: 32% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 8.5% / 조지방: 6%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 3%</t>
+  </si>
+  <si>
     <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 12%</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 28% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 40% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 33% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 22%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 31% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 12% / 조지방: 2.8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 38% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 32% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 대용량 / [기능] 헤어볼배출 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 12% / 조지방: 2.8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 21% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 7.5% / 조지방: 5.5%</t>
   </si>
   <si>
     <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 15%</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 12% / 조지방: 2.8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / [영양성분]  조단백: 31% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 생살코기(생분)함유 / USDA / AAFCO / [영양성분]  조단백: 26% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 34% / 조지방: 25%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / [특징] AAFCO / [영양성분]  조단백: 32% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 3%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 38% / 조지방: 16%</t>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 26% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 25% / 조지방: 11.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 27% / 조지방: 11.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 위·장·소화 / [특징] 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 34% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 34% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 37% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 27% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / USDA / AAFCO / [영양성분]  조단백: 30% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>yBUinsOtCI911781</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 13.5% / 조지방: 3.4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 2.6%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 10.5% / 조지방: 5.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 28% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 27% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 습식 / [영양성분]  조단백: 12% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [영양성분]  조단백: 3% / 조지방: 4.3%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / AAFCO / [영양성분]  조단백: 21% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 요로·비뇨 / 치석·치아·구강 / 알레르기 예방: 처방식 / [영양성분]  조단백: 20g / 조지방: 17g</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
   </si>
   <si>
     <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 체중조절·관리 / [특징] non-GMO / [영양성분]  조단백: 27% / 조지방: 10%</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 21% / 조지방: 19%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 31% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 32% / 조지방: 15%</t>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 위·장·소화 / [특징] AAFCO / [영양성분]  조단백: 20% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 25% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 25% / 조지방: 13%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] AAFCO / [영양성분]  조단백: 23% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 23% / 조지방: 14.2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / 체험팩 / [기능] 위·장·소화 / [영양성분]  조단백: 36% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 13%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / [영양성분]  조단백: 24% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [특징] AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 34% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 습식 / 알레르기 예방: 그레인프리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 11% / 조지방: 7.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 31% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [영양성분]  조단백: 3% / 조지방: 5.7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 처방식 / [영양성분]  조단백: 22g / 조지방: 7g</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 대용량 / [영양성분]  조단백: 26% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>rGTMaEHlIX41213</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 22% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 25% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: L.I.D, 그레인프리 / [영양성분]  조단백: 21% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 치석·치아·구강 / 뼈·관절·연골 / [영양성분]  조단백: 16% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 뼈·관절·연골 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 25% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백: 6% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 25% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 31% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 25% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [영양성분]  조단백: 20.5% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 신장·신부전 / [영양성분]  조단백: 10.5% / 조지방: 2.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 22% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 22%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / USDA / ECOCERT / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 임신·수유 / 위·장·소화 / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 26% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 중간입자(~12mm) / 대용량 / [기능] [특징] 홀리스틱 / [영양성분]  조단백:22% / 조지방:12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방:12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 21% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 신장·신부전 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 36% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 24% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 작은입자(~8mm) / [기능] 뼈·관절·연골 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 29% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 체중조절·관리 / 알레르기 예방: 처방식</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 16% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 7.5% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 6%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 20% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 32% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 건식 / [기능] 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 34.5% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 처방식 / [영양성분]  조단백: 20g / 조지방: 11g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 33% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>J8yvchSF0E836222</t>
   </si>
   <si>
     <t>강아지사료 / 강아지 전연령용 / 습식 / [영양성분]  조단백: 6% / 조지방: 3%</t>
   </si>
   <si>
-    <t>고양이사료 / 자묘용(키튼) / 습식 / [영양성분]  조단백: 12% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 25% / 조지방: 11.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 8% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 26% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / USDA / AAFCO / [영양성분]  조단백: 30% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 19%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백: 6% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / 無방부제/합성보존료 / [영양성분]  조단백: 28% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 7.5% / 조지방: 5.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 37% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 27% / 조지방: 11.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>4mszJwG8wP635183</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 27% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 27% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 25% / 조지방: 13%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 7.5% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 뼈·관절·연골 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 25% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 12% / 조지방: 2.8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 23% / 조지방: 14.2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 34% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 신장·신부전 / 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 18% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 8% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 뼈·관절·연골 / [특징] non-GMO / HACCP / [영양성분]  조단백: 26% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 체험팩 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 36% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / AAFCO / HACCP / [영양성분]  조단백: 36% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 9% / 조지방: 0.3%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  면역력강화 / 건강한피부 / 부드러운모질 / 건강한연골과관절 / 소화촉진 / 조단백:33% / 조지방:16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 26% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 헤어볼배출 / 위·장·소화 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 35% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 헤어볼배출 / 신장·신부전 / 위·장·소화 / [영양성분]  조단백: 28.5% / 조지방: 15.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 체중조절·관리 / AAFCO</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 無방부제/합성보존료 / USDA / AAFCO / [영양성분]  조단백: 40% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [특징] non-GMO / [영양성분]  조단백: 24% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 19%</t>
   </si>
   <si>
     <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 29% / 조지방: 15%</t>
   </si>
   <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 28% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 34% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 21% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / AAFCO / [영양성분]  조단백: 21% / 조지방: 12%</t>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [특징] AAFCO / [영양성분]  조단백: 11% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 20%</t>
   </si>
   <si>
     <t>강아지사료 / 자견용(퍼피) / 습식 / [기능] 임신·수유 / [영양성분]  조단백: 10% / 조지방: 6%</t>
   </si>
   <si>
-    <t>강아지사료 / 성견용(어덜트) / 대용량 / [영양성분]  조단백: 26% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 31% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 처방식 / [영양성분]  조단백: 22g / 조지방: 7g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 2.6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 13.5% / 조지방: 3.4%</t>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 41% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 16.8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 28% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / [기능] 체중조절·관리 / [영양성분]  조단백: 26% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 뼈·관절·연골 / [영양성분]  조단백: 20% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 8%</t>
   </si>
   <si>
     <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 16%</t>
   </si>
   <si>
-    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 10.5% / 조지방: 5.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 25% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 27% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 대용량 / [기능] 헤어볼배출 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 위·장·소화 / [특징] AAFCO / [영양성분]  조단백: 20% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / [영양성분]  조단백: 24% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 13%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] AAFCO / [영양성분]  조단백: 23% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 중간입자(~12mm) / 대용량 / [기능] [특징] 홀리스틱 / [영양성분]  조단백:22% / 조지방:12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 21% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>BbbYNyvjxf683702</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [특징] AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 22% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 28% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 31% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 25% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 체중조절·관리 / 알레르기 예방: 처방식</t>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / [영양성분]  조단백: 44% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] AAFCO / [영양성분]  조단백: 31% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / HACCP / [영양성분]  조단백: 23% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 13%</t>
+  </si>
+  <si>
+    <t>HCABBNLxlY801815</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 신장·신부전 / 뼈·관절·연골 / [영양성분]  조단백: 9.5% / 조지방: 4.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 헤어볼배출 / [영양성분]  조단백: 35% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 27% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [특징] AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 3%</t>
+  </si>
+  <si>
+    <t>강아지분유 / 자견용(퍼피) / [영양성분]  조단백: 22.8% / 조지방: 25.26%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 24g / 조지방: 16g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 26% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백:25% / 조지방:10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 36% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 9% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 28% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 16.1% / 조지방: 2.8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [영양성분]  조단백: 6% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / 구성: 닭가슴살 100g 1개+연어 100g 1개+소고기 100g 1개+오리안심 100g 1개+튼튼체력 100g 1개+튼튼관절 100g 1개+빛나는 피모 100g 1개</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 21% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 체중조절·관리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 17.5% / 조지방: 2.8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 14.1% / 조지방: 2.6%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 28% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 26% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 18% / 조지방: 6%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 헤어볼배출 / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 중간입자(~12mm) / 낱개소포장 / [기능] 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 26.82% / 조지방: 18.63%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 28% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백: 22% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 32g / 조지방: 22g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / [영양성분]  조단백: 33% / 조지방: 22%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 13% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>pAghe7eJkd651271</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 처방식 / [영양성분]  조단백: 16g / 조지방: 16g</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 16% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 반건조(소프트건식) / 큰입자(13mm~) / 대용량 / [기능] 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / [영양성분]  조단백: 26% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 34% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 29% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / HACCP / [영양성분]  조단백: 21% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 낱개소포장 / [특징] 홀리스틱 / [영양성분]  조단백: 19% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] AAFCO / [영양성분]  조단백: 32% / 조지방: 13%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 9.5% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 신장·신부전 / 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 25% / 조지방: 23.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 신장·신부전 / 위·장·소화 / 알레르기 예방: 처방식 / [영양성분]  조단백: 16g / 조지방: 18g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백:37% / 조지방:14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 25% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 36% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 27% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 28% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / 無방부제/합성보존료 / [영양성분]  조단백: 29% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 37% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 중간입자(~12mm) / [기능] 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 7% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 헤어볼배출 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / 체험팩 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 35% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 13.5% / 조지방: 3.4%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 대용량 / [영양성분]  조단백:30% / 조지방:15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] HACCP</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 34% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 26% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>6uxwUJ6Z5K213842</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [영양성분]  구성: 쇠고기 6개+닭고기 6개+양고기 6개</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 7% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / [영양성분]  조단백: 8% / 조지방: 3.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 피모·피부·모질 / 위·장·소화 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 건식 / [기능] 신장·신부전 / 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 체험팩 / [기능] 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 37% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / [특징] non-GMO / [영양성분]  조단백: 36% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 습식 / [영양성분]  조단백: 7% / 조지방: 1%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 알레르기 예방: 그레인프리 / [영양성분]  조단백:36% / 조지방:16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 7.5% / 조지방: 7.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [영양성분]  조단백: 36% / 조지방: 19%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 요로·비뇨 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 10% / 조지방: 3.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 요로·비뇨 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백:42% / 조지방:20%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / non-GMO / AAFCO / HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 9.5% / 조지방: 5.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 요로·비뇨 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 33% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 18g / 조지방: 17g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 체험팩 / [기능] 헤어볼배출 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 27% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  종류: 오리지날 울트라 그레인프리 닭고기 퍼피 포뮬라, 오리지날 울트라 그레인프리 닭고기 포뮬라, LID 감자&amp;오리고기 도그 포뮬라, LID 고구마&amp;연어 도그 포뮬라, LID 닭고기&amp;고구마 도그 포뮬라</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [기능] 요로·비뇨 / 치석·치아·구강 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 10.8% / 조지방: 12.2%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 습식 / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 2.1%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 치석·치아·구강 / 임신·수유 / 뼈·관절·연골 / [영양성분]  조단백: 20% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 위·장·소화 / 알레르기 예방: L.I.D / [영양성분]  조단백: 7% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 0.3%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>ssH1zB6j6y504597</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 뼈·관절·연골 / [영양성분]  조단백: 9% / 조지방: 0.3%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리 / 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 21% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / [영양성분]  조단백: 15% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 큰입자(13mm~) / 대용량 / [기능] 알레르기 예방: 그레인프리 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 건식 / [기능] 신장·신부전 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 26g / 조지방: 17g</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 28% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 습식 / [특징] AAFCO / [영양성분]  조단백: 7.5% / 조지방: 4%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 35% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / [영양성분]  조단백:34% / 조지방:14%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 6.5% / 조지방: 1.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 작은입자(~8mm) / 낱개소포장 / [기능] 체중조절·관리 / [특징] 농림축산식품부 / [영양성분]  조단백: 22% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] [영양성분]  조단백: 28% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 26% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [특징] non-GMO / 無방부제/합성보존료 / MSC / [영양성분]  조단백: 29% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 14.5% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방:12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 12.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 32% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / HACCP / [영양성분]  조단백: 22% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 15.7% / 조지방: 2.1%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 28% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리, 글루텐프리 / [영양성분]  조단백: 31% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 32% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [영양성분]  조단백: 6.91% / 조지방: 3.55%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 휴먼그레이드 / non-GMO / [영양성분]  조단백: 9% / 조지방: 2%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 중간입자(~12mm) / 대용량 / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [영양성분]  조단백: 42% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 20%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 18% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 글루텐프리 / [특징] 홀리스틱 / [영양성분]  조단백: 32% / 조지방: 22%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / AAFCO / [영양성분]  조단백: 8% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>KwCy3ntIkn142927</t>
+  </si>
+  <si>
+    <t>고양이사료 / 습식 / 알레르기 예방: 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 반건조(소프트건식) / 체험팩 / [기능] 피모·피부·모질 / [영양성분]  조단백: 27% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 59.5% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 그레인프리 / [특징] non-GMO / [영양성분]  조단백: 35% / 조지방: 17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 습식 / [영양성분]  조단백: 21% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백:7% / 조지방:2%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백:33% / 조지방:16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 처방식</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [영양성분]  조단백: 17.5% / 조지방: 5.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 체험팩 / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 임신·수유 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [영양성분]  조단백: 5.5% / 조지방: 5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 체중조절·관리 / [영양성분]  조단백: 5.5% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / [영양성분]  조단백: 32% / 조지방: 7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / [영양성분]  조단백:15% / 조지방:6%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 체험팩 / [특징] 無방부제/합성보존료 / AAFCO / [영양성분]  조단백: 27.68% / 조지방: 7.95%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / [영양성분]  조단백: 5% / 조지방: 3%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 요로·비뇨 / 위·장·소화 / [특징] non-GMO / AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / [기능] 피모·피부·모질 / 치석·치아·구강 / [영양성분]  신진대사촉진 / 면역력강화 / 건강한구강 / 건강한피부 / 빛나는모질 / 조단백:24% / 조지방:13%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / [영양성분]  조단백: 21% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 19% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / [특징] 농림축산식품부 / [영양성분]  조단백: 29% / 조지방 15%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
   </si>
   <si>
     <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 7.5% / 조지방: 3%</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [특징] AAFCO / [영양성분]  조단백: 11% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 위·장·소화 / [특징] 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 34% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 7% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 임신·수유 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 25% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 16% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 33% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 36% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 28% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [영양성분]  조단백: 20.5% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 3%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / USDA / ECOCERT / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 홀리스틱 / 휴먼그레이드 / non-GMO / [영양성분]  조단백: 22% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 임신·수유 / 위·장·소화 / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 요로·비뇨 / 치석·치아·구강 / 알레르기 예방: 처방식 / [영양성분]  조단백: 20g / 조지방: 17g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 처방식 / [영양성분]  조단백: 20g / 조지방: 11g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방:12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 20% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 신장·신부전 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 작은입자(~8mm) / [기능] 뼈·관절·연골 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 29% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 24% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [기능] 체중조절·관리 / [영양성분]  조단백: 26% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 28% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 34% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 26% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 41% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 중간입자(~12mm) / [기능] 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 18% / 조지방: 6%</t>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 습식 / [기능] 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 10g / 조지방: 3.5g</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 2.7%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [영양성분]  조단백: 23% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 대용량 / [영양성분]  조단백:30% / 조지방:17%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 26% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 위·장·소화 / [영양성분]  조단백:35% / 조지방:20%</t>
+  </si>
+  <si>
+    <t>V7qgNVIijc726339</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / [영양성분]  조단백: 40% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 31.5% / 조지방: 12.5%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 뼈·관절·연골 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방: 11%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 낱개소포장 / [기능] 체중조절·관리 / [영양성분]  조단백: 18% / 조지방: 8%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 24% / 조지방: 6%</t>
   </si>
   <si>
     <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 12% / 조지방: 2%</t>
   </si>
   <si>
-    <t>FTBJf9g49t125368</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 32% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: L.I.D, 그레인프리 / [영양성분]  조단백: 21% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / AAFCO / HACCP / [영양성분]  조단백: 36% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 34% / 조지방: 16.8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 헤어볼배출 / 신장·신부전 / 위·장·소화 / [영양성분]  조단백: 28.5% / 조지방: 15.5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / [특징] non-GMO / [영양성분]  조단백: 36% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / [영양성분]  조단백: 25% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 체중조절·관리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 無방부제/합성보존료 / USDA / AAFCO / [영양성분]  조단백: 40% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 치석·치아·구강 / 뼈·관절·연골 / [영양성분]  조단백: 16% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 체중조절·관리 / AAFCO</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [특징] non-GMO / [영양성분]  조단백: 24% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 신장·신부전 / [영양성분]  조단백: 10.5% / 조지방: 2.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 헤어볼배출 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 25% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 중성화 관리 / 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 34% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / HACCP / [영양성분]  조단백: 21% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 치석·치아·구강 / 뼈·관절·연골 / [특징] HACCP / [영양성분]  조단백: 28% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 대용량 / [영양성분]  조단백: 18% / 조지방: 6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 19%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 24g / 조지방: 16g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 21% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 27% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] AAFCO / [영양성분]  조단백: 31% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 16.1% / 조지방: 2.8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / 구성: 닭가슴살 100g 1개+연어 100g 1개+소고기 100g 1개+오리안심 100g 1개+튼튼체력 100g 1개+튼튼관절 100g 1개+빛나는 피모 100g 1개</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [영양성분]  조단백: 6% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 32% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>KrdZP7D0sg159617</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 17.5% / 조지방: 2.8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 처방식 / [영양성분]  조단백: 16g / 조지방: 16g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 14.1% / 조지방: 2.6%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / HACCP / [영양성분]  조단백: 23% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 32g / 조지방: 22g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / [기능] 신장·신부전 / 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 18% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 낱개소포장 / [기능] 뼈·관절·연골 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 헤어볼배출 / [영양성분]  조단백: 35% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 28% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 13% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 18.5% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 14% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 홀리스틱 / [영양성분]  조단백: 44% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / FEDIAF / HACCP / [영양성분]  조단백: 16% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 29% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 25% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 27% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 26% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 피모·피부·모질 / 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 9% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [특징] AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / HACCP / [영양성분]  조단백: 32% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 건식 / [기능] 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 34.5% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백:37% / 조지방:14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 반건조(소프트건식) / 큰입자(13mm~) / 대용량 / [기능] 위·장·소화 / [특징] 생살코기(생분)함유 / AAFCO / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 28% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 34% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 중간입자(~12mm) / 낱개소포장 / [기능] 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 10%</t>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 31% / 조지방: 6%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / [영양성분]  조단백: 30% / 조지방: 16%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 21% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 33% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  습식 / 피부질환개선 / 조단백: 27% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 요로·비뇨 / [영양성분]  조단백: 24% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 헤어볼배출 / 요로·비뇨 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / [영양성분]  조단백: 27% / 조지방: 10%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / [영양성분]  조단백: 32% / 조지방: 21%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 4.5%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 노령묘용(시니어) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 30% / 조지방: 16%</t>
   </si>
   <si>
     <t>강아지사료 / 강아지 전연령용 / [영양성분]  조단백: 25% / 조지방: 8%</t>
   </si>
   <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 대용량 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>w74gJH56VN878162</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백: 22% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 위·장·소화 / [영양성분]  조단백:35% / 조지방:20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 26.82% / 조지방: 18.63%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / [특징] AAFCO / [영양성분]  조단백: 32% / 조지방: 13%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 건식 / [기능] 신장·신부전 / 요로·비뇨 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 19%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 신장·신부전 / 위·장·소화 / 알레르기 예방: 처방식 / [영양성분]  조단백: 16g / 조지방: 18g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 요로·비뇨 / [특징] HACCP / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 19% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 작은입자(~8mm) / 낱개소포장 / [기능] 체중조절·관리 / [특징] 농림축산식품부 / [영양성분]  조단백: 22% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 21% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 25% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / [기능] 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 37% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 6.5% / 조지방: 1.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 대용량 / [특징] 홀리스틱 / [영양성분]  조단백: 19% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [영양성분]  조단백: 3% / 조지방: 4.3%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 28% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 34% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 습식 / [기능] 요로·비뇨 / [특징] AAFCO / [영양성분]  조단백: 7% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 13.5% / 조지방: 3.4%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] non-GMO / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 체험팩 / [기능] 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 35% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 26% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / [영양성분]  조단백: 8% / 조지방: 3.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [영양성분]  구성: 쇠고기 6개+닭고기 6개+양고기 6개</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 요로·비뇨 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 10% / 조지방: 3.5%</t>
+    <t>고양이사료 / 건식 / [기능] 신장·신부전 / 알레르기 예방: 처방식</t>
+  </si>
+  <si>
+    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / [영양성분]  조단백: 25% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 고양이 전연령용 / 동결건조 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: L.I.D, 그레인프리 / [영양성분]  조단백: 36.5% / 조지방: 18%</t>
   </si>
   <si>
     <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / [영양성분]  조단백: 40% / 조지방: 18%</t>
   </si>
   <si>
-    <t>Ci2cYE99ym382314</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 임신·수유 / 위·장·소화 / [특징] 휴먼그레이드 / non-GMO / AAFCO / HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 홀리스틱 / non-GMO / USDA / AAFCO / [영양성분]  조단백: 35% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / [영양성분]  조단백: 15% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리, 글루텐프리 / [영양성분]  조단백: 31% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 요로·비뇨 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 33% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [특징] AAFCO / [영양성분]  조단백: 7.5% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / [특징] 농림축산식품부 / [영양성분]  조단백: 29% / 조지방 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 요로·비뇨 / 위·장·소화 / [특징] non-GMO / AAFCO / HACCP / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [영양성분]  조단백: 23% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 18g / 조지방: 17g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / [영양성분]  조단백: 25% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / MSC / GAP / [영양성분]  조단백: 27% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [기능] 요로·비뇨 / 치석·치아·구강 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 10.8% / 조지방: 12.2%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 대용량 / [영양성분]  조단백:30% / 조지방:17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 헤어볼배출 / 위·장·소화 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 35% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 체험팩 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 30% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 반건조(소프트건식) / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 32% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 그레인프리 / [영양성분]  종류: 오리지날 울트라 그레인프리 닭고기 퍼피 포뮬라, 오리지날 울트라 그레인프리 닭고기 포뮬라, LID 감자&amp;오리고기 도그 포뮬라, LID 고구마&amp;연어 도그 포뮬라, LID 닭고기&amp;고구마 도그 포뮬라</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / [기능] 치석·치아·구강 / 임신·수유 / 뼈·관절·연골 / [영양성분]  조단백: 20% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 23% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 위·장·소화 / 알레르기 예방: L.I.D / [영양성분]  조단백: 7% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [영양성분]  조단백: 21% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리 / 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [영양성분]  조단백: 42% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 큰입자(13mm~) / 대용량 / [기능] 알레르기 예방: 그레인프리 / [영양성분]  조단백: 30% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / [기능] 요로·비뇨 / 위·장·소화 / 알레르기 예방: 글루텐프리 / [특징] 홀리스틱 / [영양성분]  조단백: 32% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [특징] [영양성분]  조단백: 28% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 피모·피부·모질 / 요로·비뇨 / 알레르기 예방: 그레인프리 / [특징] non-GMO / [영양성분]  조단백: 35% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 체험팩 / [기능] 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 임신·수유 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 26% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / [기능] 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 26% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [영양성분]  조단백: 5.5% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>KImbgiJB3h791557</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 체중조절·관리 / [영양성분]  조단백: 5.5% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 요로·비뇨 / 치석·치아·구강 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 반건조(소프트건식) / 낱개소포장 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 22% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 작은입자(~8mm) / 체험팩 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방:12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 알레르기 예방: 글루텐프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / AAFCO / HACCP / [영양성분]  조단백: 26% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 낱개소포장 / [기능] 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / HACCP / [영양성분]  조단백: 22% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 체험팩 / [기능] 위·장·소화 / 체중조절·관리 / 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 15.7% / 조지방: 2.1%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 그레인프리, 글루텐프리 / [특징] non-GMO / 無방부제/합성보존료 / HACCP / [영양성분]  조단백: 28% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [영양성분]  조단백: 6.91% / 조지방: 3.55%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 헤어볼배출 / 위·장·소화 / 체중조절·관리 / [영양성분]  조단백: 7.7% / 조지방: 1.3%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 31% / 조지방: 6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 대용량 / [영양성분]  조단백:30% / 조지방:15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / USDA / ECOCERT / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 18% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 알레르기 예방: 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방: 14%</t>
+    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 신장·신부전 / 위·장·소화 / [영양성분]  조단백: 8.1% / 조지방: 1.1%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 6%</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 32% / 조지방: 14%</t>
   </si>
   <si>
     <t>강아지사료 / 강아지 전연령용 / [기능] 피모·피부·모질 / 뼈·관절·연골 / [영양성분]  조단백: 27% / 조지방: 10%</t>
   </si>
   <si>
-    <t>강아지사료 / 성견용(어덜트) / 반건조(소프트건식) / 체험팩 / [기능] 피모·피부·모질 / [영양성분]  조단백: 27% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 습식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 59.5% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 습식 / [기능] 신장·신부전 / 위·장·소화 / [영양성분]  조단백: 8.1% / 조지방: 1.1%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백:7% / 조지방:2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 처방식</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 글루텐프리 / [영양성분]  조단백: 17.5% / 조지방: 5.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 큰입자(13mm~) / 대용량 / [기능] 피모·피부·모질 / [영양성분]  조단백:15% / 조지방:6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 체험팩 / [특징] 無방부제/합성보존료 / AAFCO / [영양성분]  조단백: 27.68% / 조지방: 7.95%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 습식 / 낱개소포장 / [영양성분]  조단백: 3% / 조지방: 5.7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / [영양성분]  조단백: 5% / 조지방: 3%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 습식 / [영양성분]  조단백: 21% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / [영양성분]  조단백: 28% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 임신·수유 / [영양성분]  조단백: 32% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 낱개소포장 / [기능] 체중조절·관리 / [영양성분]  조단백: 18% / 조지방: 8%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 24% / 조지방: 6%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 큰입자(13mm~) / 낱개소포장 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 24% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  습식 / 피부질환개선 / 조단백: 27% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 30% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / [기능] 요로·비뇨 / [영양성분]  조단백: 24% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>8oxix8GNb0147411</t>
-  </si>
-  <si>
-    <t>고양이사료 / 습식 / [기능] 신장·신부전 / 요로·비뇨 / 알레르기 예방: 처방식 / [영양성분]  조단백: 8g / 조지방: 8g</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / [영양성분]  조단백: 30% / 조지방: 16%</t>
-  </si>
-  <si>
     <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 9.2% / 조지방: 3%</t>
   </si>
   <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 중간입자(~12mm) / 낱개소포장 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 28% / 조지방: 18%</t>
+    <t>강아지사료 / 건식 / 대용량 / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / [영양성분]  조단백: 29% / 조지방: 15%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 25g / 조지방: 20g</t>
+  </si>
+  <si>
+    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 31% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 건식 / [기능] 신장·신부전 / 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 23% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 노령견용(시니어) / 건식 / 작은입자(~8mm) / [기능] 뼈·관절·연골 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 22% / 조지방: 12%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 알레르기 예방: 가수분해단백질 / [특징] 홀리스틱 / [영양성분]  조단백: 32% / 조지방: 18%</t>
+  </si>
+  <si>
+    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 14%</t>
+  </si>
+  <si>
+    <t>고양이분유 / 자묘용(키튼) / [기능] 임신·수유 / [영양성분]  조단백: 42% / 조지방: 20%</t>
   </si>
   <si>
     <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [특징] HACCP / [영양성분]  조단백: 22% / 조지방: 7%</t>
   </si>
   <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [영양성분]  조단백: 31% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] HACCP / [영양성분]  조단백: 14% / 조지방: 4.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 피모·피부·모질 / 위·장·소화 / 체중조절·관리 / [특징] non-GMO / [영양성분]  조단백: 27% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 반건조(소프트건식) / 체험팩 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 24% / 조지방: 6%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 동결건조 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: L.I.D, 그레인프리 / [영양성분]  조단백: 36.5% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 32% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 중간입자(~12mm) / [기능] 헤어볼배출 / 알레르기 예방: 그레인프리 / [특징] 無방부제/합성보존료 / [영양성분]  조단백: 32% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 신장·신부전 / 피모·피부·모질 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 23% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이분유 / 자묘용(키튼) / [기능] 임신·수유 / [영양성분]  조단백: 42% / 조지방: 20%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 작은입자(~8mm) / [기능] 뼈·관절·연골 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / 無방부제/합성보존료 / [영양성분]  조단백: 22% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 임신·수유 / [영양성분]  조단백: 32% / 조지방: 21%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 건식 / [기능] 신장·신부전 / 알레르기 예방: 처방식</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 뼈·관절·연골 / 체중조절·관리 / [영양성분]  조단백: 30% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질 / [특징] 농림축산식품부 / HACCP / [영양성분]  조단백: 24% / 조지방: 14%</t>
-  </si>
-  <si>
     <t>강아지사료 / 건식 / [기능] 치석·치아·구강 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 30g / 조지방: 9.5g</t>
   </si>
   <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 알레르기 예방: 그레인프리</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / 대용량 / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리 / [특징] 홀리스틱 / 생살코기(생분)함유 / [영양성분]  조단백: 29% / 조지방: 15%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 중간입자(~12mm) / 대용량 / [기능] 헤어볼배출 / 신장·신부전 / 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 가수분해단백질 / [특징] AAFCO / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 위·장·소화 / [특징] 홀리스틱 / 생살코기(생분)함유 / non-GMO / USDA / [영양성분]  조단백: 30% / 조지방: 16%</t>
-  </si>
-  <si>
     <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 위·장·소화 / [영양성분]  조단백: 4% / 조지방: 2.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 건식 / [기능] 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 25g / 조지방: 20g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [영양성분]  조단백: 7% / 조지방: 1%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 12% / 조지방: 3.7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 중간입자(~12mm) / 대용량 / [기능] 뼈·관절·연골 / [영양성분]  조단백: 20% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] non-GMO / [영양성분]  조단백: 35% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 건식 / [기능] 신장·신부전 / 요로·비뇨 / 위·장·소화 / 알레르기 예방: 가수분해단백질, 처방식 / [영양성분]  조단백: 26g / 조지방: 17g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 알레르기 예방: 글루텐프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 16% / 조지방: 0.5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 36% / 조지방: 17%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 대용량 / [기능] 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [기능] 피모·피부·모질 / 뼈·관절·연골 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 알레르기 예방: 글루텐프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / non-GMO / [영양성분]  조단백: 15% / 조지방: 0.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 노령견용(시니어) / 건식 / 중간입자(~12mm) / [기능] 뼈·관절·연골 / 체중조절·관리 / 알레르기 예방: 그레인프리, 글루텐프리 / [특징] 생살코기(생분)함유 / non-GMO / 無방부제/합성보존료 / [영양성분]  조단백: 24% / 조지방: 11%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 체중조절·관리 / 알레르기 예방: 그레인프리 / [영양성분]  조단백: 37% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>A43MjLwPjM806271</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / 대용량 / [기능] 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 17% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / [영양성분]  조단백: 30% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 자묘용(키튼) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 임신·수유 / 위·장·소화 / [특징] AAFCO / HACCP / [영양성분]  조단백: 32% / 조지방: 23%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 9.5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 20% / 조지방: 12.5%</t>
-  </si>
-  <si>
-    <t>강아지분유 / 자견용(퍼피) / [영양성분]  조단백: 22.8% / 조지방: 25.26%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 습식 / [기능] 중성화 관리 / 요로·비뇨 / 체중조절·관리 / [영양성분]  조단백: 9% / 조지방: 2.1%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 낱개소포장 / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 위·장·소화 / 체중조절·관리 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 29% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / 대용량 / [특징] 생살코기(생분)함유 / [영양성분]  조단백: 38% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 알레르기 예방: L.I.D, 그레인프리, 글루텐프리 / [영양성분]  조단백: 23% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 11% / 조지방: 7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / [영양성분]  조단백: 9% / 조지방: 5.8%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / 작은입자(~8mm) / [기능] 헤어볼배출 / 피모·피부·모질 / 요로·비뇨 / 체중조절·관리 / 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] 휴먼그레이드 / 생살코기(생분)함유 / [영양성분]  조단백: 35% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 피모·피부·모질 / 위·장·소화 / 알레르기 예방: L.I.D, 그레인프리 / [특징] 생살코기(생분)함유 / AAFCO / [영양성분]  조단백: 26% / 조지방: 18%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 습식 / [기능] 피모·피부·모질 / 요로·비뇨 / 체중조절·관리 / [특징] 無방부제/합성보존료 / AAFCO / [영양성분]  조단백: 6.5% / 조지방: 2%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / 건식 / 작은입자(~8mm) / 낱개소포장 / [특징] HACCP / [영양성분]  조단백: 27% / 조지방: 14%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백:7.5% / 조지방:2%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 노령묘용(시니어) / 건식 / [기능] 요로·비뇨 / 위·장·소화 / [특징] USDA / AAFCO / [영양성분]  조단백: 33% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 습식 / [기능] 헤어볼배출 / 알레르기 예방: 가수분해단백질 / [영양성분]  조단백: 5% / 조지방: 0.7%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 알레르기 예방: 가수분해단백질, 그레인프리 / [특징] non-GMO / [영양성분]  조단백: 25% / 조지방: 16%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / 건식 / [기능] 뼈·관절·연골 / 체중조절·관리 / 알레르기 예방: 처방식 / [영양성분]  조단백: 25g / 조지방: 12g</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 건식 / [기능] 헤어볼배출 / 피모·피부·모질 / 위·장·소화 / [영양성분]  조단백: 31.5% / 조지방: 12.5%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [영양성분]  조단백: 11% / 조지방: 9%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 성견용(어덜트) / [영양성분]  조단백:24% / 조지방:10%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / [기능] 피모·피부·모질 / 치석·치아·구강 / 뼈·관절·연골 / 위·장·소화 / [영양성분]  조단백: 30% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 자견용(퍼피) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / 치석·치아·구강 / 임신·수유 / 뼈·관절·연골 / 위·장·소화 / 체중조절·관리 / [특징] HACCP / [영양성분]  조단백: 23% / 조지방: 10%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [기능] 피모·피부·모질 / [특징] non-GMO / 농림축산식품부 / [영양성분]  조단백: 26% / 조지방: 12%</t>
-  </si>
-  <si>
-    <t>고양이사료 / 성묘용(어덜트) / 건식 / 작은입자(~8mm) / [기능] 피모·피부·모질 / [영양성분]  조단백: 33% / 조지방: 22%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 대용량 / [영양성분]  조단백: 21% / 조지방: 5%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [기능] 위·장·소화 / [영양성분]  조단백:33% / 조지방:10% / 높은소화흡수율 / 알러지최소화 / 면역력증가 / 항균력강화</t>
-  </si>
-  <si>
-    <t>고양이사료 / 고양이 전연령용 / 습식 / [기능] 임신·수유 / 뼈·관절·연골 / [특징] AAFCO / [영양성분]  조단백: 12% / 조지방: 4%</t>
-  </si>
-  <si>
-    <t>강아지사료 / 강아지 전연령용 / [기능] 체중조절·관리 / [영양성분]  조단백: 27% / 조지방: 13%</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2829,7 @@
         <v>416</v>
       </c>
       <c r="C5">
-        <v>23105</v>
+        <v>15910</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2837,7 +2840,7 @@
         <v>417</v>
       </c>
       <c r="C6">
-        <v>21860</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2848,7 +2851,7 @@
         <v>418</v>
       </c>
       <c r="C7">
-        <v>12460</v>
+        <v>182467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2859,7 +2862,7 @@
         <v>419</v>
       </c>
       <c r="C8">
-        <v>16100</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2870,7 +2873,7 @@
         <v>420</v>
       </c>
       <c r="C9">
-        <v>17970</v>
+        <v>28940</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2884,7 @@
         <v>421</v>
       </c>
       <c r="C10">
-        <v>28940</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2892,7 +2895,7 @@
         <v>422</v>
       </c>
       <c r="C11">
-        <v>14530</v>
+        <v>18040</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2903,7 +2906,7 @@
         <v>423</v>
       </c>
       <c r="C12">
-        <v>4750</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2914,7 +2917,7 @@
         <v>424</v>
       </c>
       <c r="C13">
-        <v>7200</v>
+        <v>14530</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2925,7 +2928,7 @@
         <v>425</v>
       </c>
       <c r="C14">
-        <v>16620</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2936,7 +2939,7 @@
         <v>426</v>
       </c>
       <c r="C15">
-        <v>17080</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2947,7 +2950,7 @@
         <v>427</v>
       </c>
       <c r="C16">
-        <v>14280</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2958,7 +2961,7 @@
         <v>428</v>
       </c>
       <c r="C17">
-        <v>8350</v>
+        <v>16620</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2969,7 +2972,7 @@
         <v>429</v>
       </c>
       <c r="C18">
-        <v>1330</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2980,7 +2983,7 @@
         <v>430</v>
       </c>
       <c r="C19">
-        <v>7540</v>
+        <v>19920</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2991,7 +2994,7 @@
         <v>431</v>
       </c>
       <c r="C20">
-        <v>8180</v>
+        <v>21060</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3013,7 +3016,7 @@
         <v>433</v>
       </c>
       <c r="C22">
-        <v>19920</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3024,7 +3027,7 @@
         <v>434</v>
       </c>
       <c r="C23">
-        <v>7860</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3046,7 +3049,7 @@
         <v>436</v>
       </c>
       <c r="C25">
-        <v>23850</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3057,7 +3060,7 @@
         <v>437</v>
       </c>
       <c r="C26">
-        <v>10840</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3068,7 +3071,7 @@
         <v>438</v>
       </c>
       <c r="C27">
-        <v>7670</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3079,7 +3082,7 @@
         <v>439</v>
       </c>
       <c r="C28">
-        <v>31390</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3090,7 +3093,7 @@
         <v>440</v>
       </c>
       <c r="C29">
-        <v>16700</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3101,7 +3104,7 @@
         <v>441</v>
       </c>
       <c r="C30">
-        <v>11000</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3112,7 +3115,7 @@
         <v>442</v>
       </c>
       <c r="C31">
-        <v>750</v>
+        <v>23850</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3123,7 +3126,7 @@
         <v>443</v>
       </c>
       <c r="C32">
-        <v>1070</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3134,7 +3137,7 @@
         <v>444</v>
       </c>
       <c r="C33">
-        <v>14790</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3145,7 +3148,7 @@
         <v>445</v>
       </c>
       <c r="C34">
-        <v>1190</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3156,7 +3159,7 @@
         <v>446</v>
       </c>
       <c r="C35">
-        <v>21060</v>
+        <v>31060</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3167,7 +3170,7 @@
         <v>447</v>
       </c>
       <c r="C36">
-        <v>18000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3178,7 +3181,7 @@
         <v>448</v>
       </c>
       <c r="C37">
-        <v>23000</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3189,7 +3192,7 @@
         <v>449</v>
       </c>
       <c r="C38">
-        <v>10879</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3200,7 +3203,7 @@
         <v>450</v>
       </c>
       <c r="C39">
-        <v>12220</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3211,7 +3214,7 @@
         <v>451</v>
       </c>
       <c r="C40">
-        <v>17450</v>
+        <v>14790</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3222,7 +3225,7 @@
         <v>452</v>
       </c>
       <c r="C41">
-        <v>1240</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3233,7 +3236,7 @@
         <v>453</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3244,7 +3247,7 @@
         <v>454</v>
       </c>
       <c r="C43">
-        <v>1020</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3255,7 +3258,7 @@
         <v>455</v>
       </c>
       <c r="C44">
-        <v>13900</v>
+        <v>23450</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3266,7 +3269,7 @@
         <v>456</v>
       </c>
       <c r="C45">
-        <v>22800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3277,7 +3280,7 @@
         <v>457</v>
       </c>
       <c r="C46">
-        <v>6880</v>
+        <v>10879</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3288,7 +3291,7 @@
         <v>458</v>
       </c>
       <c r="C47">
-        <v>29570</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3299,7 +3302,7 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>635183</v>
+        <v>911781</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3310,7 +3313,7 @@
         <v>460</v>
       </c>
       <c r="C49">
-        <v>9800</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3321,7 +3324,7 @@
         <v>461</v>
       </c>
       <c r="C50">
-        <v>11700</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3332,7 +3335,7 @@
         <v>462</v>
       </c>
       <c r="C51">
-        <v>6000</v>
+        <v>22360</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3340,10 +3343,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C52">
-        <v>93480</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3351,10 +3354,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C53">
-        <v>11760</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3365,7 +3368,7 @@
         <v>464</v>
       </c>
       <c r="C54">
-        <v>750</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3373,10 +3376,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C55">
-        <v>8390</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3384,7 +3387,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56">
         <v>1050</v>
@@ -3395,10 +3398,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C57">
-        <v>91080</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3406,10 +3409,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C58">
-        <v>15050</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3417,10 +3420,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C59">
-        <v>18420</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3428,10 +3431,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C60">
-        <v>8710</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3439,10 +3442,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C61">
-        <v>20000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3450,10 +3453,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C62">
-        <v>8350</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3461,10 +3464,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C63">
-        <v>10000</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3472,10 +3475,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C64">
-        <v>23420</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3483,7 +3486,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C65">
         <v>17900</v>
@@ -3494,10 +3497,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C66">
-        <v>1910</v>
+        <v>21860</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3505,10 +3508,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C67">
-        <v>11700</v>
+        <v>14940</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3516,10 +3519,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C68">
-        <v>6790</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3527,10 +3530,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C69">
-        <v>21100</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3538,10 +3541,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C70">
-        <v>25940</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3549,10 +3552,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C71">
-        <v>1050</v>
+        <v>93480</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3560,10 +3563,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C72">
-        <v>7020</v>
+        <v>49790</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3571,10 +3574,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C73">
-        <v>59270</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3582,10 +3585,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="C74">
-        <v>11770</v>
+        <v>91080</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3596,7 +3599,7 @@
         <v>483</v>
       </c>
       <c r="C75">
-        <v>2330</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3607,7 +3610,7 @@
         <v>484</v>
       </c>
       <c r="C76">
-        <v>8520</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3618,7 +3621,7 @@
         <v>485</v>
       </c>
       <c r="C77">
-        <v>11750</v>
+        <v>29480</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3629,7 +3632,7 @@
         <v>486</v>
       </c>
       <c r="C78">
-        <v>13100</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3640,7 +3643,7 @@
         <v>487</v>
       </c>
       <c r="C79">
-        <v>22360</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3651,7 +3654,7 @@
         <v>488</v>
       </c>
       <c r="C80">
-        <v>21890</v>
+        <v>27090</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3662,7 +3665,7 @@
         <v>489</v>
       </c>
       <c r="C81">
-        <v>13090</v>
+        <v>26980</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3673,7 +3676,7 @@
         <v>490</v>
       </c>
       <c r="C82">
-        <v>16200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3684,7 +3687,7 @@
         <v>491</v>
       </c>
       <c r="C83">
-        <v>23760</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3692,10 +3695,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="C84">
-        <v>19270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3703,10 +3706,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C85">
-        <v>49830</v>
+        <v>25940</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3714,10 +3717,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="C86">
-        <v>14640</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3728,7 +3731,7 @@
         <v>494</v>
       </c>
       <c r="C87">
-        <v>36760</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3739,7 +3742,7 @@
         <v>495</v>
       </c>
       <c r="C88">
-        <v>683702</v>
+        <v>41213</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3750,7 +3753,7 @@
         <v>496</v>
       </c>
       <c r="C89">
-        <v>29610</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3761,7 +3764,7 @@
         <v>497</v>
       </c>
       <c r="C90">
-        <v>16250</v>
+        <v>17560</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3772,7 +3775,7 @@
         <v>498</v>
       </c>
       <c r="C91">
-        <v>25060</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3783,7 +3786,7 @@
         <v>499</v>
       </c>
       <c r="C92">
-        <v>14600</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3794,7 +3797,7 @@
         <v>500</v>
       </c>
       <c r="C93">
-        <v>17560</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3805,7 +3808,7 @@
         <v>501</v>
       </c>
       <c r="C94">
-        <v>10430</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3816,7 +3819,7 @@
         <v>502</v>
       </c>
       <c r="C95">
-        <v>73100</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3827,7 +3830,7 @@
         <v>503</v>
       </c>
       <c r="C96">
-        <v>910</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3838,7 +3841,7 @@
         <v>504</v>
       </c>
       <c r="C97">
-        <v>940</v>
+        <v>26210</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3849,7 +3852,7 @@
         <v>505</v>
       </c>
       <c r="C98">
-        <v>16580</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3860,7 +3863,7 @@
         <v>506</v>
       </c>
       <c r="C99">
-        <v>6590</v>
+        <v>55710</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3871,7 +3874,7 @@
         <v>507</v>
       </c>
       <c r="C100">
-        <v>730</v>
+        <v>16580</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3882,7 +3885,7 @@
         <v>508</v>
       </c>
       <c r="C101">
-        <v>24200</v>
+        <v>131180</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3893,7 +3896,7 @@
         <v>509</v>
       </c>
       <c r="C102">
-        <v>35460</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3904,7 +3907,7 @@
         <v>510</v>
       </c>
       <c r="C103">
-        <v>26210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3915,7 +3918,7 @@
         <v>511</v>
       </c>
       <c r="C104">
-        <v>33270</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3926,7 +3929,7 @@
         <v>512</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3937,7 +3940,7 @@
         <v>513</v>
       </c>
       <c r="C106">
-        <v>16630</v>
+        <v>26080</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3948,7 +3951,7 @@
         <v>514</v>
       </c>
       <c r="C107">
-        <v>17350</v>
+        <v>18640</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3959,7 +3962,7 @@
         <v>515</v>
       </c>
       <c r="C108">
-        <v>55710</v>
+        <v>14640</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3970,7 +3973,7 @@
         <v>516</v>
       </c>
       <c r="C109">
-        <v>9590</v>
+        <v>59940</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3981,7 +3984,7 @@
         <v>517</v>
       </c>
       <c r="C110">
-        <v>10100</v>
+        <v>36760</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3992,7 +3995,7 @@
         <v>518</v>
       </c>
       <c r="C111">
-        <v>8500</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4003,7 +4006,7 @@
         <v>519</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>16610</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4014,7 +4017,7 @@
         <v>520</v>
       </c>
       <c r="C113">
-        <v>26080</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4025,7 +4028,7 @@
         <v>521</v>
       </c>
       <c r="C114">
-        <v>21480</v>
+        <v>42620</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4036,7 +4039,7 @@
         <v>522</v>
       </c>
       <c r="C115">
-        <v>22910</v>
+        <v>84550</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4047,7 +4050,7 @@
         <v>523</v>
       </c>
       <c r="C116">
-        <v>59940</v>
+        <v>33270</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4058,7 +4061,7 @@
         <v>524</v>
       </c>
       <c r="C117">
-        <v>22000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4069,7 +4072,7 @@
         <v>525</v>
       </c>
       <c r="C118">
-        <v>24220</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4080,7 +4083,7 @@
         <v>526</v>
       </c>
       <c r="C119">
-        <v>42750</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4091,7 +4094,7 @@
         <v>527</v>
       </c>
       <c r="C120">
-        <v>16470</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4102,7 +4105,7 @@
         <v>528</v>
       </c>
       <c r="C121">
-        <v>46980</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4113,7 +4116,7 @@
         <v>529</v>
       </c>
       <c r="C122">
-        <v>9660</v>
+        <v>24620</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4124,7 +4127,7 @@
         <v>530</v>
       </c>
       <c r="C123">
-        <v>17440</v>
+        <v>15490</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4135,7 +4138,7 @@
         <v>531</v>
       </c>
       <c r="C124">
-        <v>24380</v>
+        <v>22860</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4146,7 +4149,7 @@
         <v>532</v>
       </c>
       <c r="C125">
-        <v>18640</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4157,7 +4160,7 @@
         <v>533</v>
       </c>
       <c r="C126">
-        <v>18880</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4168,7 +4171,7 @@
         <v>534</v>
       </c>
       <c r="C127">
-        <v>10600</v>
+        <v>836222</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4179,7 +4182,7 @@
         <v>535</v>
       </c>
       <c r="C128">
-        <v>10880</v>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4190,7 +4193,7 @@
         <v>536</v>
       </c>
       <c r="C129">
-        <v>910</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4201,7 +4204,7 @@
         <v>537</v>
       </c>
       <c r="C130">
-        <v>125368</v>
+        <v>22950</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4212,7 +4215,7 @@
         <v>538</v>
       </c>
       <c r="C131">
-        <v>13680</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4223,7 +4226,7 @@
         <v>539</v>
       </c>
       <c r="C132">
-        <v>21700</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4234,7 +4237,7 @@
         <v>540</v>
       </c>
       <c r="C133">
-        <v>28650</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4245,7 +4248,7 @@
         <v>541</v>
       </c>
       <c r="C134">
-        <v>11400</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4256,7 +4259,7 @@
         <v>542</v>
       </c>
       <c r="C135">
-        <v>2350</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4267,7 +4270,7 @@
         <v>543</v>
       </c>
       <c r="C136">
-        <v>16740</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4278,7 +4281,7 @@
         <v>544</v>
       </c>
       <c r="C137">
-        <v>24260</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4289,7 +4292,7 @@
         <v>545</v>
       </c>
       <c r="C138">
-        <v>17490</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4300,7 +4303,7 @@
         <v>546</v>
       </c>
       <c r="C139">
-        <v>15380</v>
+        <v>21050</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4311,7 +4314,7 @@
         <v>547</v>
       </c>
       <c r="C140">
-        <v>13310</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4322,7 +4325,7 @@
         <v>548</v>
       </c>
       <c r="C141">
-        <v>25550</v>
+        <v>17580</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4333,7 +4336,7 @@
         <v>549</v>
       </c>
       <c r="C142">
-        <v>38620</v>
+        <v>17490</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4344,7 +4347,7 @@
         <v>550</v>
       </c>
       <c r="C143">
-        <v>29040</v>
+        <v>14890</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4355,7 +4358,7 @@
         <v>551</v>
       </c>
       <c r="C144">
-        <v>7120</v>
+        <v>29250</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4366,7 +4369,7 @@
         <v>552</v>
       </c>
       <c r="C145">
-        <v>14890</v>
+        <v>20810</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4385,10 +4388,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C147">
-        <v>1010</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4396,10 +4399,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C148">
-        <v>30180</v>
+        <v>16560</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4407,10 +4410,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C149">
-        <v>11520</v>
+        <v>18430</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4418,10 +4421,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C150">
-        <v>22000</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4429,10 +4432,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C151">
-        <v>24120</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4440,10 +4443,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C152">
-        <v>16880</v>
+        <v>930</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4451,10 +4454,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C153">
-        <v>34660</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4462,10 +4465,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154">
-        <v>21980</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4473,10 +4476,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C155">
-        <v>84000</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4484,10 +4487,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C156">
-        <v>16560</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4495,10 +4498,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C157">
-        <v>21390</v>
+        <v>23890</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4506,10 +4509,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C158">
-        <v>7250</v>
+        <v>25060</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4517,10 +4520,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C159">
-        <v>27820</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4531,7 +4534,7 @@
         <v>566</v>
       </c>
       <c r="C160">
-        <v>12490</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4542,7 +4545,7 @@
         <v>567</v>
       </c>
       <c r="C161">
-        <v>11200</v>
+        <v>46980</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4553,7 +4556,7 @@
         <v>568</v>
       </c>
       <c r="C162">
-        <v>18240</v>
+        <v>59270</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4564,7 +4567,7 @@
         <v>569</v>
       </c>
       <c r="C163">
-        <v>1290</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4575,7 +4578,7 @@
         <v>570</v>
       </c>
       <c r="C164">
-        <v>11810</v>
+        <v>18240</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4586,7 +4589,7 @@
         <v>571</v>
       </c>
       <c r="C165">
-        <v>1130</v>
+        <v>16880</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4597,7 +4600,7 @@
         <v>572</v>
       </c>
       <c r="C166">
-        <v>13490</v>
+        <v>22080</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4605,10 +4608,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>498</v>
       </c>
       <c r="C167">
-        <v>159617</v>
+        <v>27820</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4616,10 +4619,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C168">
-        <v>1600</v>
+        <v>801815</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4627,10 +4630,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C169">
-        <v>12460</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4638,10 +4641,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C170">
-        <v>25800</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4649,10 +4652,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C171">
-        <v>1600</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4660,10 +4663,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C172">
-        <v>9170</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4671,10 +4674,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C173">
-        <v>16880</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4682,10 +4685,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C174">
-        <v>15030</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4693,10 +4696,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C175">
-        <v>20550</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4704,10 +4707,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C176">
-        <v>30100</v>
+        <v>27410</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4715,10 +4718,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C177">
-        <v>15200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4726,10 +4729,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C178">
-        <v>19800</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4737,10 +4740,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C179">
-        <v>19030</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4748,10 +4751,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C180">
-        <v>7570</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4759,10 +4762,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C181">
-        <v>28820</v>
+        <v>10430</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4770,10 +4773,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C182">
-        <v>23480</v>
+        <v>24970</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4784,7 +4787,7 @@
         <v>588</v>
       </c>
       <c r="C183">
-        <v>10240</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4795,7 +4798,7 @@
         <v>589</v>
       </c>
       <c r="C184">
-        <v>29840</v>
+        <v>30180</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4806,7 +4809,7 @@
         <v>590</v>
       </c>
       <c r="C185">
-        <v>7390</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4817,7 +4820,7 @@
         <v>591</v>
       </c>
       <c r="C186">
-        <v>24560</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4828,7 +4831,7 @@
         <v>592</v>
       </c>
       <c r="C187">
-        <v>20160</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4839,7 +4842,7 @@
         <v>593</v>
       </c>
       <c r="C188">
-        <v>45730</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4850,7 +4853,7 @@
         <v>594</v>
       </c>
       <c r="C189">
-        <v>34630</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4861,7 +4864,7 @@
         <v>595</v>
       </c>
       <c r="C190">
-        <v>15030</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4872,7 +4875,7 @@
         <v>596</v>
       </c>
       <c r="C191">
-        <v>27000</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4883,7 +4886,7 @@
         <v>597</v>
       </c>
       <c r="C192">
-        <v>10680</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4894,7 +4897,7 @@
         <v>598</v>
       </c>
       <c r="C193">
-        <v>35180</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4905,7 +4908,7 @@
         <v>599</v>
       </c>
       <c r="C194">
-        <v>13210</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4916,7 +4919,7 @@
         <v>600</v>
       </c>
       <c r="C195">
-        <v>22640</v>
+        <v>38620</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4927,7 +4930,7 @@
         <v>601</v>
       </c>
       <c r="C196">
-        <v>25230</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4938,7 +4941,7 @@
         <v>602</v>
       </c>
       <c r="C197">
-        <v>2880</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4949,7 +4952,7 @@
         <v>603</v>
       </c>
       <c r="C198">
-        <v>23900</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4960,7 +4963,7 @@
         <v>604</v>
       </c>
       <c r="C199">
-        <v>18420</v>
+        <v>16620</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4971,7 +4974,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>24620</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4982,7 +4985,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>24250</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4993,7 +4996,7 @@
         <v>607</v>
       </c>
       <c r="C202">
-        <v>60250</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5004,7 +5007,7 @@
         <v>608</v>
       </c>
       <c r="C203">
-        <v>30440</v>
+        <v>18460</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5015,7 +5018,7 @@
         <v>609</v>
       </c>
       <c r="C204">
-        <v>14690</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5026,7 +5029,7 @@
         <v>610</v>
       </c>
       <c r="C205">
-        <v>10050</v>
+        <v>17420</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5037,7 +5040,7 @@
         <v>611</v>
       </c>
       <c r="C206">
-        <v>19380</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5048,7 +5051,7 @@
         <v>612</v>
       </c>
       <c r="C207">
-        <v>6290</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5059,7 +5062,7 @@
         <v>613</v>
       </c>
       <c r="C208">
-        <v>24970</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5070,7 +5073,7 @@
         <v>614</v>
       </c>
       <c r="C209">
-        <v>878162</v>
+        <v>29840</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5081,7 +5084,7 @@
         <v>615</v>
       </c>
       <c r="C210">
-        <v>6860</v>
+        <v>651271</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5092,7 +5095,7 @@
         <v>616</v>
       </c>
       <c r="C211">
-        <v>6860</v>
+        <v>25800</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5103,7 +5106,7 @@
         <v>617</v>
       </c>
       <c r="C212">
-        <v>22080</v>
+        <v>24560</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5114,7 +5117,7 @@
         <v>618</v>
       </c>
       <c r="C213">
-        <v>18900</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5125,7 +5128,7 @@
         <v>619</v>
       </c>
       <c r="C214">
-        <v>18460</v>
+        <v>34630</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5136,7 +5139,7 @@
         <v>620</v>
       </c>
       <c r="C215">
-        <v>21780</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5147,7 +5150,7 @@
         <v>621</v>
       </c>
       <c r="C216">
-        <v>6190</v>
+        <v>19030</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5158,7 +5161,7 @@
         <v>622</v>
       </c>
       <c r="C217">
-        <v>9030</v>
+        <v>28820</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5166,10 +5169,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C218">
-        <v>42660</v>
+        <v>23480</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5177,10 +5180,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C219">
-        <v>28280</v>
+        <v>14690</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5188,10 +5191,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C220">
-        <v>11810</v>
+        <v>29670</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5199,10 +5202,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C221">
-        <v>9000</v>
+        <v>17739</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5210,10 +5213,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C222">
-        <v>8540</v>
+        <v>16880</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5221,10 +5224,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C223">
-        <v>7750</v>
+        <v>15890</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5232,10 +5235,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C224">
-        <v>13930</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5243,10 +5246,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C225">
-        <v>8960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5254,10 +5257,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C226">
-        <v>17080</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5265,10 +5268,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C227">
-        <v>19570</v>
+        <v>28230</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5276,10 +5279,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="C228">
-        <v>10600</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5290,7 +5293,7 @@
         <v>633</v>
       </c>
       <c r="C229">
-        <v>26640</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5301,7 +5304,7 @@
         <v>634</v>
       </c>
       <c r="C230">
-        <v>780</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5312,7 +5315,7 @@
         <v>635</v>
       </c>
       <c r="C231">
-        <v>15890</v>
+        <v>22640</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5323,7 +5326,7 @@
         <v>636</v>
       </c>
       <c r="C232">
-        <v>960</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5334,7 +5337,7 @@
         <v>637</v>
       </c>
       <c r="C233">
-        <v>9200</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5345,7 +5348,7 @@
         <v>638</v>
       </c>
       <c r="C234">
-        <v>13440</v>
+        <v>26640</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5356,7 +5359,7 @@
         <v>639</v>
       </c>
       <c r="C235">
-        <v>32090</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5367,7 +5370,7 @@
         <v>640</v>
       </c>
       <c r="C236">
-        <v>750</v>
+        <v>35180</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5375,10 +5378,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>470</v>
+        <v>641</v>
       </c>
       <c r="C237">
-        <v>8750</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5386,10 +5389,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="C238">
-        <v>7490</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5397,10 +5400,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C239">
-        <v>6490</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5408,10 +5411,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C240">
-        <v>13650</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5419,10 +5422,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="C241">
-        <v>18180</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5433,7 +5436,7 @@
         <v>644</v>
       </c>
       <c r="C242">
-        <v>8340</v>
+        <v>24460</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5441,10 +5444,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C243">
-        <v>13650</v>
+        <v>18180</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5452,10 +5455,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C244">
-        <v>13650</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5463,10 +5466,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C245">
-        <v>7080</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5474,10 +5477,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C246">
-        <v>1720</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5485,10 +5488,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C247">
-        <v>23900</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5496,10 +5499,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C248">
-        <v>1890</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5507,10 +5510,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C249">
-        <v>24080</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5518,10 +5521,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C250">
-        <v>382314</v>
+        <v>213842</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5529,10 +5532,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C251">
-        <v>15820</v>
+        <v>20550</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5540,10 +5543,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C252">
-        <v>13840</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5551,10 +5554,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C253">
-        <v>13930</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5562,10 +5565,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C254">
-        <v>1720</v>
+        <v>750</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5573,10 +5576,10 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>542</v>
+        <v>649</v>
       </c>
       <c r="C255">
-        <v>2350</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5584,10 +5587,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="C256">
-        <v>2350</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5595,10 +5598,10 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C257">
-        <v>25650</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5606,10 +5609,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C258">
-        <v>26910</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5617,10 +5620,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C259">
-        <v>1860</v>
+        <v>42660</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5628,10 +5631,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C260">
-        <v>1190</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5639,10 +5642,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C261">
-        <v>19000</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5650,10 +5653,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C262">
-        <v>14220</v>
+        <v>15380</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5661,10 +5664,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C263">
-        <v>10500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5672,10 +5675,10 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C264">
-        <v>24620</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5683,10 +5686,10 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C265">
-        <v>8620</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5694,10 +5697,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>663</v>
+        <v>539</v>
       </c>
       <c r="C266">
-        <v>4940</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5705,10 +5708,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C267">
-        <v>31000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5716,10 +5719,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>665</v>
+        <v>539</v>
       </c>
       <c r="C268">
-        <v>1150</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5727,10 +5730,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C269">
-        <v>8910</v>
+        <v>20810</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5738,10 +5741,10 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C270">
-        <v>23140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5749,10 +5752,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C271">
-        <v>17580</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5760,10 +5763,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C272">
-        <v>2420</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5771,10 +5774,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C273">
-        <v>2370</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5782,10 +5785,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C274">
-        <v>10</v>
+        <v>24380</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5793,10 +5796,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C275">
-        <v>6720</v>
+        <v>15820</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5804,10 +5807,10 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C276">
-        <v>8500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5815,10 +5818,10 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C277">
-        <v>3710</v>
+        <v>26910</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5826,10 +5829,10 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>442</v>
+        <v>676</v>
       </c>
       <c r="C278">
-        <v>990</v>
+        <v>24620</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5837,10 +5840,10 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5848,10 +5851,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C280">
-        <v>9410</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5859,10 +5862,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C281">
-        <v>39900</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5870,10 +5873,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="C282">
-        <v>1860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5881,10 +5884,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C283">
-        <v>32000</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5892,10 +5895,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C284">
-        <v>21600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5903,10 +5906,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>680</v>
+        <v>546</v>
       </c>
       <c r="C285">
-        <v>27530</v>
+        <v>33760</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5914,10 +5917,10 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>681</v>
+        <v>551</v>
       </c>
       <c r="C286">
-        <v>17590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5925,10 +5928,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C287">
-        <v>2230</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5936,10 +5939,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C288">
-        <v>25540</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5947,10 +5950,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C289">
-        <v>900</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5958,10 +5961,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C290">
-        <v>791557</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5969,10 +5972,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C291">
-        <v>950</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5980,10 +5983,10 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C292">
-        <v>12980</v>
+        <v>504597</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5991,10 +5994,10 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C293">
-        <v>9210</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6002,10 +6005,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>542</v>
+        <v>690</v>
       </c>
       <c r="C294">
-        <v>9010</v>
+        <v>26200</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6013,10 +6016,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C295">
-        <v>2570</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6024,10 +6027,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C296">
-        <v>15300</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6035,10 +6038,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C297">
-        <v>8690</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6046,10 +6049,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C298">
-        <v>1990</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6057,10 +6060,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C299">
-        <v>22000</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6068,10 +6071,10 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C300">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6079,10 +6082,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C301">
-        <v>1010</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6090,10 +6093,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C302">
-        <v>34730</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6101,10 +6104,10 @@
         <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C303">
-        <v>22800</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6112,10 +6115,10 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C304">
-        <v>13000</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6123,10 +6126,10 @@
         <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C305">
-        <v>21040</v>
+        <v>780</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6134,10 +6137,10 @@
         <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C306">
-        <v>3830</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6145,10 +6148,10 @@
         <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C307">
-        <v>7340</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6156,10 +6159,10 @@
         <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C308">
-        <v>27900</v>
+        <v>25540</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6167,10 +6170,10 @@
         <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C309">
-        <v>14260</v>
+        <v>62250</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6178,10 +6181,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C310">
-        <v>5720</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6189,10 +6192,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C311">
-        <v>3880</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6200,10 +6203,10 @@
         <v>313</v>
       </c>
       <c r="B312" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C312">
-        <v>1110</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6211,10 +6214,10 @@
         <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C313">
-        <v>3969</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6222,10 +6225,10 @@
         <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C314">
-        <v>4640</v>
+        <v>26240</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6233,10 +6236,10 @@
         <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C315">
-        <v>5500</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6244,10 +6247,10 @@
         <v>317</v>
       </c>
       <c r="B316" t="s">
-        <v>710</v>
+        <v>539</v>
       </c>
       <c r="C316">
-        <v>15210</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6258,7 +6261,7 @@
         <v>711</v>
       </c>
       <c r="C317">
-        <v>23000</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6269,7 +6272,7 @@
         <v>712</v>
       </c>
       <c r="C318">
-        <v>1000</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6280,7 +6283,7 @@
         <v>713</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6291,7 +6294,7 @@
         <v>714</v>
       </c>
       <c r="C320">
-        <v>46980</v>
+        <v>25650</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6302,7 +6305,7 @@
         <v>715</v>
       </c>
       <c r="C321">
-        <v>11000</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6313,7 +6316,7 @@
         <v>716</v>
       </c>
       <c r="C322">
-        <v>29480</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6321,10 +6324,10 @@
         <v>324</v>
       </c>
       <c r="B323" t="s">
-        <v>669</v>
+        <v>535</v>
       </c>
       <c r="C323">
-        <v>9900</v>
+        <v>990</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6332,10 +6335,10 @@
         <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="C324">
-        <v>9900</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6343,10 +6346,10 @@
         <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="C325">
-        <v>4410</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6354,10 +6357,10 @@
         <v>327</v>
       </c>
       <c r="B326" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C326">
-        <v>18600</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6365,10 +6368,10 @@
         <v>328</v>
       </c>
       <c r="B327" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C327">
-        <v>17980</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6376,10 +6379,10 @@
         <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C328">
-        <v>10820</v>
+        <v>21040</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6387,10 +6390,10 @@
         <v>330</v>
       </c>
       <c r="B329" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C329">
-        <v>18460</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6398,10 +6401,10 @@
         <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C330">
-        <v>16830</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6409,10 +6412,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C331">
-        <v>17140</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6420,10 +6423,10 @@
         <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C332">
-        <v>147411</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6431,10 +6434,10 @@
         <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C333">
-        <v>10500</v>
+        <v>142927</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6442,10 +6445,10 @@
         <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="C334">
-        <v>28000</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6453,10 +6456,10 @@
         <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C335">
-        <v>14900</v>
+        <v>22360</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6464,10 +6467,10 @@
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C336">
-        <v>5640</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6475,10 +6478,10 @@
         <v>338</v>
       </c>
       <c r="B337" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C337">
-        <v>1010</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6486,10 +6489,10 @@
         <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C338">
-        <v>16150</v>
+        <v>17190</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6497,10 +6500,10 @@
         <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C339">
-        <v>16650</v>
+        <v>46980</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6508,10 +6511,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C340">
-        <v>9660</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6519,10 +6522,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C341">
-        <v>7760</v>
+        <v>23630</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6530,10 +6533,10 @@
         <v>343</v>
       </c>
       <c r="B342" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C342">
-        <v>29180</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6541,10 +6544,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C343">
-        <v>8790</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6552,10 +6555,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C344">
-        <v>15000</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6563,10 +6566,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C345">
-        <v>2590</v>
+        <v>900</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6574,10 +6577,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C346">
-        <v>35830</v>
+        <v>950</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6585,10 +6588,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C347">
-        <v>6210</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6596,10 +6599,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C348">
-        <v>21000</v>
+        <v>15210</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6607,10 +6610,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C349">
-        <v>31580</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6618,10 +6621,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C350">
-        <v>46350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6629,10 +6632,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C351">
-        <v>23570</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6640,10 +6643,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="C352">
-        <v>47410</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6651,10 +6654,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C353">
-        <v>34980</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6665,7 +6668,7 @@
         <v>744</v>
       </c>
       <c r="C354">
-        <v>11970</v>
+        <v>34580</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6676,7 +6679,7 @@
         <v>745</v>
       </c>
       <c r="C355">
-        <v>27740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6687,7 +6690,7 @@
         <v>746</v>
       </c>
       <c r="C356">
-        <v>19800</v>
+        <v>10820</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6698,7 +6701,7 @@
         <v>747</v>
       </c>
       <c r="C357">
-        <v>23220</v>
+        <v>16320</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6709,7 +6712,7 @@
         <v>748</v>
       </c>
       <c r="C358">
-        <v>19800</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6720,7 +6723,7 @@
         <v>749</v>
       </c>
       <c r="C359">
-        <v>27410</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6731,7 +6734,7 @@
         <v>750</v>
       </c>
       <c r="C360">
-        <v>2900</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6742,7 +6745,7 @@
         <v>751</v>
       </c>
       <c r="C361">
-        <v>4900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6750,10 +6753,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>752</v>
+        <v>483</v>
       </c>
       <c r="C362">
-        <v>29240</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6761,10 +6764,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C363">
-        <v>1000</v>
+        <v>12980</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6772,10 +6775,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C364">
-        <v>1000</v>
+        <v>19570</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6783,10 +6786,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C365">
-        <v>13650</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6794,10 +6797,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C366">
-        <v>8960</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6805,10 +6808,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C367">
-        <v>30780</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6816,10 +6819,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C368">
-        <v>2240</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6827,10 +6830,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C369">
-        <v>18280</v>
+        <v>23920</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6838,10 +6841,10 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C370">
-        <v>32500</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6849,10 +6852,10 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C371">
-        <v>19800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6860,10 +6863,10 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C372">
-        <v>2240</v>
+        <v>726339</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6871,10 +6874,10 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C373">
-        <v>19560</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6882,10 +6885,10 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C374">
-        <v>18740</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6893,10 +6896,10 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C375">
-        <v>19350</v>
+        <v>19560</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6904,10 +6907,10 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C376">
-        <v>806271</v>
+        <v>18550</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6915,10 +6918,10 @@
         <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C377">
-        <v>12240</v>
+        <v>17980</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6926,10 +6929,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C378">
-        <v>9950</v>
+        <v>910</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6937,10 +6940,10 @@
         <v>380</v>
       </c>
       <c r="B379" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C379">
-        <v>7830</v>
+        <v>34730</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6948,10 +6951,10 @@
         <v>381</v>
       </c>
       <c r="B380" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C380">
-        <v>10600</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6959,10 +6962,10 @@
         <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C381">
-        <v>16930</v>
+        <v>30220</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6970,10 +6973,10 @@
         <v>383</v>
       </c>
       <c r="B382" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C382">
-        <v>8820</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6981,10 +6984,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C383">
-        <v>1200</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6992,10 +6995,10 @@
         <v>385</v>
       </c>
       <c r="B384" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C384">
-        <v>11900</v>
+        <v>17140</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7003,10 +7006,10 @@
         <v>386</v>
       </c>
       <c r="B385" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C385">
-        <v>115430</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7014,10 +7017,10 @@
         <v>387</v>
       </c>
       <c r="B386" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C386">
-        <v>21800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7025,10 +7028,10 @@
         <v>388</v>
       </c>
       <c r="B387" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C387">
-        <v>4300</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7036,10 +7039,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C388">
-        <v>1170</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7047,10 +7050,10 @@
         <v>390</v>
       </c>
       <c r="B389" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C389">
-        <v>17080</v>
+        <v>16830</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7058,10 +7061,10 @@
         <v>391</v>
       </c>
       <c r="B390" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C390">
-        <v>28540</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7069,10 +7072,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C391">
-        <v>1190</v>
+        <v>18460</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7080,10 +7083,10 @@
         <v>393</v>
       </c>
       <c r="B392" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C392">
-        <v>11490</v>
+        <v>34980</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7091,10 +7094,10 @@
         <v>394</v>
       </c>
       <c r="B393" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C393">
-        <v>1130</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7102,10 +7105,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C394">
-        <v>27740</v>
+        <v>35790</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7113,10 +7116,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="s">
-        <v>507</v>
+        <v>783</v>
       </c>
       <c r="C395">
-        <v>750</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7124,10 +7127,10 @@
         <v>397</v>
       </c>
       <c r="B396" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C396">
-        <v>1010</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7135,10 +7138,10 @@
         <v>398</v>
       </c>
       <c r="B397" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C397">
-        <v>17900</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7146,10 +7149,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C398">
-        <v>30110</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7157,10 +7160,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C399">
-        <v>4940</v>
+        <v>14210</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7168,10 +7171,10 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C400">
-        <v>4300</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7179,10 +7182,10 @@
         <v>402</v>
       </c>
       <c r="B401" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="C401">
-        <v>8800</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7193,7 +7196,7 @@
         <v>790</v>
       </c>
       <c r="C402">
-        <v>5860</v>
+        <v>29240</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7201,10 +7204,10 @@
         <v>404</v>
       </c>
       <c r="B403" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="C403">
-        <v>12200</v>
+        <v>29180</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7212,10 +7215,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C404">
-        <v>8150</v>
+        <v>31580</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7223,10 +7226,10 @@
         <v>406</v>
       </c>
       <c r="B405" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C405">
-        <v>11745</v>
+        <v>23570</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7234,10 +7237,10 @@
         <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C406">
-        <v>9660</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7245,10 +7248,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C407">
-        <v>21030</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7256,10 +7259,10 @@
         <v>409</v>
       </c>
       <c r="B408" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C408">
-        <v>12890</v>
+        <v>46350</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7267,10 +7270,10 @@
         <v>410</v>
       </c>
       <c r="B409" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C409">
-        <v>6500</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7278,10 +7281,10 @@
         <v>411</v>
       </c>
       <c r="B410" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C410">
-        <v>940</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7289,10 +7292,10 @@
         <v>412</v>
       </c>
       <c r="B411" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C411">
-        <v>14770</v>
+        <v>4900</v>
       </c>
     </row>
   </sheetData>
